--- a/results/LogReg nice.xlsx
+++ b/results/LogReg nice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tristan/Documents/Projekte/Boston Celi/1 Causal Inference/mit-tmle-cancer/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAE47A9-2E1C-574C-A2CF-B0F92474927C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3371B425-90D7-F643-9F82-A14A07609DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_ethno" sheetId="9" r:id="rId1"/>
@@ -137,21 +137,21 @@
     <t>&gt; 10</t>
   </si>
   <si>
-    <t>Odds Ratio (95% CI)
-Male vs. Female</t>
-  </si>
-  <si>
     <t>Number</t>
   </si>
   <si>
     <t>SOFA Ranges</t>
   </si>
   <si>
-    <t>Odds Ratio (95% CI)
-Non-cancer vs. Cancer</t>
+    <t>Cancer</t>
   </si>
   <si>
-    <t>Cancer</t>
+    <t>Odds Ratio (95% CI)
+Female vs. Male</t>
+  </si>
+  <si>
+    <t>Odds Ratio (95% CI)
+Cancer vs. Non-cancer</t>
   </si>
 </sst>
 </file>
@@ -298,6 +298,14 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -316,14 +324,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -352,44 +352,44 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="A6">
-            <v>0.86729140631055002</v>
+            <v>0.92801440653176603</v>
           </cell>
           <cell r="B6">
-            <v>0.80209927902272204</v>
+            <v>0.88583629039011602</v>
           </cell>
           <cell r="C6">
-            <v>0.93771230822654295</v>
+            <v>0.97219176543607999</v>
           </cell>
           <cell r="D6">
-            <v>16841</v>
+            <v>40102</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>1.0194975559623101</v>
+            <v>1.0758075826464299</v>
           </cell>
           <cell r="B7">
-            <v>0.92773305071562895</v>
+            <v>1.0181177086950901</v>
           </cell>
           <cell r="C7">
-            <v>1.1212465318856599</v>
+            <v>1.1368938525893899</v>
           </cell>
           <cell r="D7">
-            <v>16841</v>
+            <v>40102</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>2.0166134519082699</v>
+            <v>0.93991173507818004</v>
           </cell>
           <cell r="B16">
-            <v>0.992347953988857</v>
+            <v>0.60343820512443003</v>
           </cell>
           <cell r="C16">
-            <v>4.0836932596019304</v>
+            <v>1.46318284775917</v>
           </cell>
           <cell r="D16">
-            <v>16841</v>
+            <v>40102</v>
           </cell>
         </row>
       </sheetData>
@@ -406,51 +406,46 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="3">
-          <cell r="A3">
-            <v>1.28593747707613</v>
-          </cell>
-        </row>
         <row r="6">
           <cell r="A6">
-            <v>0.93193549267069598</v>
+            <v>0.83110130983091701</v>
           </cell>
           <cell r="B6">
-            <v>0.85936521579605396</v>
+            <v>0.67904617093298902</v>
           </cell>
           <cell r="C6">
-            <v>1.0104998259659199</v>
+            <v>1.0162472055081699</v>
           </cell>
           <cell r="D6">
-            <v>40102</v>
+            <v>2122</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>0.89772235770681497</v>
+            <v>1.07884149106663</v>
           </cell>
           <cell r="B7">
-            <v>0.82095060102182105</v>
+            <v>0.85737030924388502</v>
           </cell>
           <cell r="C7">
-            <v>0.98227683235655205</v>
+            <v>1.3617427535154201</v>
           </cell>
           <cell r="D7">
-            <v>40102</v>
+            <v>2122</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>0.78817570510651702</v>
+            <v>0.222663902707773</v>
           </cell>
           <cell r="B16">
-            <v>0.32750340381487902</v>
+            <v>3.0356537030997301E-2</v>
           </cell>
           <cell r="C16">
-            <v>1.9264638925959601</v>
+            <v>1.57268221864028</v>
           </cell>
           <cell r="D16">
-            <v>40102</v>
+            <v>2122</v>
           </cell>
         </row>
       </sheetData>
@@ -469,44 +464,44 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="A6">
-            <v>1.08982030829742</v>
+            <v>1.056978714068</v>
           </cell>
           <cell r="B6">
-            <v>1.0142871813675201</v>
+            <v>1.01091119225205</v>
           </cell>
           <cell r="C6">
-            <v>1.17102060632714</v>
+            <v>1.10515972126461</v>
           </cell>
           <cell r="D6">
-            <v>16841</v>
+            <v>40102</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>1.06140777591308</v>
+            <v>1.1160789640398701</v>
           </cell>
           <cell r="B7">
-            <v>0.97181381939413602</v>
+            <v>1.0581535500902199</v>
           </cell>
           <cell r="C7">
-            <v>1.1600179950418501</v>
+            <v>1.1772787418683399</v>
           </cell>
           <cell r="D7">
-            <v>16841</v>
+            <v>40102</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>0.82760198910809202</v>
+            <v>1.08845580549109</v>
           </cell>
           <cell r="B16">
-            <v>0.428935172860963</v>
+            <v>0.73911535441144105</v>
           </cell>
           <cell r="C16">
-            <v>1.5688718105552899</v>
+            <v>1.60117505851082</v>
           </cell>
           <cell r="D16">
-            <v>16841</v>
+            <v>40102</v>
           </cell>
         </row>
       </sheetData>
@@ -525,44 +520,44 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="A6">
-            <v>1.0383892287321499</v>
+            <v>1.08982030829742</v>
           </cell>
           <cell r="B6">
-            <v>0.96851286786333501</v>
+            <v>1.0142871813675201</v>
           </cell>
           <cell r="C6">
-            <v>1.11330937310711</v>
+            <v>1.17102060632714</v>
           </cell>
           <cell r="D6">
-            <v>13792</v>
+            <v>16841</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>1.1623424449941899</v>
+            <v>1.06140777591308</v>
           </cell>
           <cell r="B7">
-            <v>1.06913463670513</v>
+            <v>0.97181381939413602</v>
           </cell>
           <cell r="C7">
-            <v>1.2639855669553099</v>
+            <v>1.1600179950418501</v>
           </cell>
           <cell r="D7">
-            <v>13792</v>
+            <v>16841</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>1.6360386849423401</v>
+            <v>0.82760198910809202</v>
           </cell>
           <cell r="B16">
-            <v>0.91414333839935102</v>
+            <v>0.428935172860963</v>
           </cell>
           <cell r="C16">
-            <v>2.95476080826261</v>
+            <v>1.5688718105552899</v>
           </cell>
           <cell r="D16">
-            <v>13792</v>
+            <v>16841</v>
           </cell>
         </row>
       </sheetData>
@@ -581,44 +576,44 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="A6">
-            <v>1.02802218471576</v>
+            <v>1.0383892287321499</v>
           </cell>
           <cell r="B6">
-            <v>0.92687193657711198</v>
+            <v>0.96851286786333501</v>
           </cell>
           <cell r="C6">
-            <v>1.1403902074035299</v>
+            <v>1.11330937310711</v>
           </cell>
           <cell r="D6">
-            <v>7347</v>
+            <v>13792</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>1.13929469846617</v>
+            <v>1.1623424449941899</v>
           </cell>
           <cell r="B7">
-            <v>1.01394664803794</v>
+            <v>1.06913463670513</v>
           </cell>
           <cell r="C7">
-            <v>1.2794379738445401</v>
+            <v>1.2639855669553099</v>
           </cell>
           <cell r="D7">
-            <v>7347</v>
+            <v>13792</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>0.73943449209230405</v>
+            <v>1.6360386849423401</v>
           </cell>
           <cell r="B16">
-            <v>0.280881411840328</v>
+            <v>0.91414333839935102</v>
           </cell>
           <cell r="C16">
-            <v>1.9274761415252999</v>
+            <v>2.95476080826261</v>
           </cell>
           <cell r="D16">
-            <v>7347</v>
+            <v>13792</v>
           </cell>
         </row>
       </sheetData>
@@ -635,51 +630,46 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="3">
-          <cell r="A3">
-            <v>2.2361575589412799</v>
-          </cell>
-        </row>
         <row r="6">
           <cell r="A6">
-            <v>1.056978714068</v>
+            <v>1.02802218471576</v>
           </cell>
           <cell r="B6">
-            <v>1.01091119225205</v>
+            <v>0.92687193657711198</v>
           </cell>
           <cell r="C6">
-            <v>1.10515972126461</v>
+            <v>1.1403902074035299</v>
           </cell>
           <cell r="D6">
-            <v>40102</v>
+            <v>7347</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>1.1160789640398701</v>
+            <v>1.13929469846617</v>
           </cell>
           <cell r="B7">
-            <v>1.0581535500902199</v>
+            <v>1.01394664803794</v>
           </cell>
           <cell r="C7">
-            <v>1.1772787418683399</v>
+            <v>1.2794379738445401</v>
           </cell>
           <cell r="D7">
-            <v>40102</v>
+            <v>7347</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>1.08845580549109</v>
+            <v>0.73943449209230405</v>
           </cell>
           <cell r="B16">
-            <v>0.73911535441144105</v>
+            <v>0.280881411840328</v>
           </cell>
           <cell r="C16">
-            <v>1.60117505851082</v>
+            <v>1.9274761415252999</v>
           </cell>
           <cell r="D16">
-            <v>40102</v>
+            <v>7347</v>
           </cell>
         </row>
       </sheetData>
@@ -804,30 +794,30 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="A6">
-            <v>0.79114305649726302</v>
+            <v>1.06092208719532</v>
           </cell>
           <cell r="B6">
-            <v>0.31897015761608299</v>
+            <v>0.77207167612870098</v>
           </cell>
           <cell r="C6">
-            <v>1.9639939315811901</v>
+            <v>1.45552894029619</v>
           </cell>
           <cell r="D6">
-            <v>165</v>
+            <v>1022</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>0.73830600053562501</v>
+            <v>0.85230699532003296</v>
           </cell>
           <cell r="B7">
-            <v>0.26049871668577002</v>
+            <v>0.58120445562074297</v>
           </cell>
           <cell r="C7">
-            <v>1.9573527718761501</v>
+            <v>1.2640234895059701</v>
           </cell>
           <cell r="D7">
-            <v>165</v>
+            <v>1022</v>
           </cell>
         </row>
         <row r="16">
@@ -835,7 +825,7 @@
           <cell r="B16"/>
           <cell r="C16"/>
           <cell r="D16">
-            <v>165</v>
+            <v>1022</v>
           </cell>
         </row>
       </sheetData>
@@ -854,30 +844,30 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="A6">
-            <v>0.99450368404593203</v>
+            <v>0.95862653983429102</v>
           </cell>
           <cell r="B6">
-            <v>0.64709206556564303</v>
+            <v>0.70541906750614503</v>
           </cell>
           <cell r="C6">
-            <v>1.5289087365090299</v>
+            <v>1.3011767291770899</v>
           </cell>
           <cell r="D6">
-            <v>470</v>
+            <v>903</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>1.89138245096455</v>
+            <v>1.14610432091857</v>
           </cell>
           <cell r="B7">
-            <v>1.18961279767967</v>
+            <v>0.79807995225833395</v>
           </cell>
           <cell r="C7">
-            <v>3.0237203040942</v>
+            <v>1.6602639441613001</v>
           </cell>
           <cell r="D7">
-            <v>470</v>
+            <v>903</v>
           </cell>
         </row>
         <row r="16">
@@ -885,7 +875,7 @@
           <cell r="B16"/>
           <cell r="C16"/>
           <cell r="D16">
-            <v>470</v>
+            <v>903</v>
           </cell>
         </row>
       </sheetData>
@@ -904,30 +894,30 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="A6">
-            <v>0.95862653983429102</v>
+            <v>0.99450368404593203</v>
           </cell>
           <cell r="B6">
-            <v>0.70541906750614503</v>
+            <v>0.64709206556564303</v>
           </cell>
           <cell r="C6">
-            <v>1.3011767291770899</v>
+            <v>1.5289087365090299</v>
           </cell>
           <cell r="D6">
-            <v>903</v>
+            <v>470</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>1.14610432091857</v>
+            <v>1.89138245096455</v>
           </cell>
           <cell r="B7">
-            <v>0.79807995225833395</v>
+            <v>1.18961279767967</v>
           </cell>
           <cell r="C7">
-            <v>1.6602639441613001</v>
+            <v>3.0237203040942</v>
           </cell>
           <cell r="D7">
-            <v>903</v>
+            <v>470</v>
           </cell>
         </row>
         <row r="16">
@@ -935,7 +925,7 @@
           <cell r="B16"/>
           <cell r="C16"/>
           <cell r="D16">
-            <v>903</v>
+            <v>470</v>
           </cell>
         </row>
       </sheetData>
@@ -954,13 +944,13 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="A6">
-            <v>0.88308476061319896</v>
+            <v>0.86729140631055002</v>
           </cell>
           <cell r="B6">
-            <v>0.71062509196656498</v>
+            <v>0.80209927902272204</v>
           </cell>
           <cell r="C6">
-            <v>1.0960622563182201</v>
+            <v>0.93771230822654295</v>
           </cell>
           <cell r="D6">
             <v>16841</v>
@@ -968,13 +958,13 @@
         </row>
         <row r="7">
           <cell r="A7">
-            <v>0.88330360060568003</v>
+            <v>1.0194975559623101</v>
           </cell>
           <cell r="B7">
-            <v>0.69233095250719701</v>
+            <v>0.92773305071562895</v>
           </cell>
           <cell r="C7">
-            <v>1.13560974688265</v>
+            <v>1.1212465318856599</v>
           </cell>
           <cell r="D7">
             <v>16841</v>
@@ -982,13 +972,13 @@
         </row>
         <row r="16">
           <cell r="A16">
-            <v>0.36922410696255098</v>
+            <v>2.0166134519082699</v>
           </cell>
           <cell r="B16">
-            <v>3.7406044381355003E-2</v>
+            <v>0.992347953988857</v>
           </cell>
           <cell r="C16">
-            <v>3.6016823769201398</v>
+            <v>4.0836932596019304</v>
           </cell>
           <cell r="D16">
             <v>16841</v>
@@ -1010,30 +1000,30 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="A6">
-            <v>1.06092208719532</v>
+            <v>0.79114305649726302</v>
           </cell>
           <cell r="B6">
-            <v>0.77207167612870098</v>
+            <v>0.31897015761608299</v>
           </cell>
           <cell r="C6">
-            <v>1.45552894029619</v>
+            <v>1.9639939315811901</v>
           </cell>
           <cell r="D6">
-            <v>1022</v>
+            <v>165</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>0.85230699532003296</v>
+            <v>0.73830600053562501</v>
           </cell>
           <cell r="B7">
-            <v>0.58120445562074297</v>
+            <v>0.26049871668577002</v>
           </cell>
           <cell r="C7">
-            <v>1.2640234895059701</v>
+            <v>1.9573527718761501</v>
           </cell>
           <cell r="D7">
-            <v>1022</v>
+            <v>165</v>
           </cell>
         </row>
         <row r="16">
@@ -1041,7 +1031,7 @@
           <cell r="B16"/>
           <cell r="C16"/>
           <cell r="D16">
-            <v>1022</v>
+            <v>165</v>
           </cell>
         </row>
       </sheetData>
@@ -1110,30 +1100,30 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="A6">
-            <v>0.68139291865569696</v>
+            <v>0.87050206588849399</v>
           </cell>
           <cell r="B6">
-            <v>0.26444140300352198</v>
+            <v>0.304238395630194</v>
           </cell>
           <cell r="C6">
-            <v>1.6951350936468901</v>
+            <v>2.34623045745737</v>
           </cell>
           <cell r="D6">
-            <v>165</v>
+            <v>1022</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>0.82486959078028199</v>
+            <v>0.71540697845093204</v>
           </cell>
           <cell r="B7">
-            <v>0.31182807212811497</v>
+            <v>0.249633667769776</v>
           </cell>
           <cell r="C7">
-            <v>2.27286896323734</v>
+            <v>2.3672023836554499</v>
           </cell>
           <cell r="D7">
-            <v>165</v>
+            <v>1022</v>
           </cell>
         </row>
         <row r="16">
@@ -1141,7 +1131,7 @@
           <cell r="B16"/>
           <cell r="C16"/>
           <cell r="D16">
-            <v>165</v>
+            <v>1022</v>
           </cell>
         </row>
       </sheetData>
@@ -1160,30 +1150,30 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="A6">
-            <v>0.86079956933905299</v>
+            <v>0.57810803377062103</v>
           </cell>
           <cell r="B6">
-            <v>0.43602250400282</v>
+            <v>0.29609952268581202</v>
           </cell>
           <cell r="C6">
-            <v>1.6605648130099799</v>
+            <v>1.0935780620214799</v>
           </cell>
           <cell r="D6">
-            <v>470</v>
+            <v>903</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>0.67254611163682698</v>
+            <v>0.81409880799780199</v>
           </cell>
           <cell r="B7">
-            <v>0.34225834162281099</v>
+            <v>0.42052191270922001</v>
           </cell>
           <cell r="C7">
-            <v>1.3472367683055799</v>
+            <v>1.64520681065609</v>
           </cell>
           <cell r="D7">
-            <v>470</v>
+            <v>903</v>
           </cell>
         </row>
         <row r="16">
@@ -1191,7 +1181,7 @@
           <cell r="B16"/>
           <cell r="C16"/>
           <cell r="D16">
-            <v>470</v>
+            <v>903</v>
           </cell>
         </row>
       </sheetData>
@@ -1210,30 +1200,30 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="A6">
-            <v>0.57810803377062103</v>
+            <v>0.86079956933905299</v>
           </cell>
           <cell r="B6">
-            <v>0.29609952268581202</v>
+            <v>0.43602250400282</v>
           </cell>
           <cell r="C6">
-            <v>1.0935780620214799</v>
+            <v>1.6605648130099799</v>
           </cell>
           <cell r="D6">
-            <v>903</v>
+            <v>470</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>0.81409880799780199</v>
+            <v>0.67254611163682698</v>
           </cell>
           <cell r="B7">
-            <v>0.42052191270922001</v>
+            <v>0.34225834162281099</v>
           </cell>
           <cell r="C7">
-            <v>1.64520681065609</v>
+            <v>1.3472367683055799</v>
           </cell>
           <cell r="D7">
-            <v>903</v>
+            <v>470</v>
           </cell>
         </row>
         <row r="16">
@@ -1241,7 +1231,7 @@
           <cell r="B16"/>
           <cell r="C16"/>
           <cell r="D16">
-            <v>903</v>
+            <v>470</v>
           </cell>
         </row>
       </sheetData>
@@ -1260,30 +1250,30 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="A6">
-            <v>0.87050206588849399</v>
+            <v>0.68139291865569696</v>
           </cell>
           <cell r="B6">
-            <v>0.304238395630194</v>
+            <v>0.26444140300352198</v>
           </cell>
           <cell r="C6">
-            <v>2.34623045745737</v>
+            <v>1.6951350936468901</v>
           </cell>
           <cell r="D6">
-            <v>1022</v>
+            <v>165</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>0.71540697845093204</v>
+            <v>0.82486959078028199</v>
           </cell>
           <cell r="B7">
-            <v>0.249633667769776</v>
+            <v>0.31182807212811497</v>
           </cell>
           <cell r="C7">
-            <v>2.3672023836554499</v>
+            <v>2.27286896323734</v>
           </cell>
           <cell r="D7">
-            <v>1022</v>
+            <v>165</v>
           </cell>
         </row>
         <row r="16">
@@ -1291,7 +1281,7 @@
           <cell r="B16"/>
           <cell r="C16"/>
           <cell r="D16">
-            <v>1022</v>
+            <v>165</v>
           </cell>
         </row>
       </sheetData>
@@ -1360,30 +1350,30 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="A6">
-            <v>5.6671012487993</v>
+            <v>1.06061217354616</v>
           </cell>
           <cell r="B6">
-            <v>1.0567180620207799</v>
+            <v>0.79796091917385603</v>
           </cell>
           <cell r="C6">
-            <v>55.550432560135</v>
+            <v>1.4086536543002901</v>
           </cell>
           <cell r="D6">
-            <v>165</v>
+            <v>1022</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>1.09308616053189</v>
+            <v>1.3687766254228499</v>
           </cell>
           <cell r="B7">
-            <v>0.17822430553382099</v>
+            <v>0.95524995803936896</v>
           </cell>
           <cell r="C7">
-            <v>5.4712818594493697</v>
+            <v>1.9839956451140599</v>
           </cell>
           <cell r="D7">
-            <v>165</v>
+            <v>1022</v>
           </cell>
         </row>
         <row r="16">
@@ -1391,7 +1381,7 @@
           <cell r="B16"/>
           <cell r="C16"/>
           <cell r="D16">
-            <v>165</v>
+            <v>1022</v>
           </cell>
         </row>
       </sheetData>
@@ -1410,30 +1400,30 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="A6">
-            <v>0.87754119968020405</v>
+            <v>0.93498127665267405</v>
           </cell>
           <cell r="B6">
-            <v>0.57097230265883103</v>
+            <v>0.70737263088647895</v>
           </cell>
           <cell r="C6">
-            <v>1.3505442235963601</v>
+            <v>1.23508183723261</v>
           </cell>
           <cell r="D6">
-            <v>470</v>
+            <v>903</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>1.02142104630222</v>
+            <v>0.860949979564964</v>
           </cell>
           <cell r="B7">
-            <v>0.63113660564059804</v>
+            <v>0.61844410460496502</v>
           </cell>
           <cell r="C7">
-            <v>1.6390639251024399</v>
+            <v>1.1993864319783401</v>
           </cell>
           <cell r="D7">
-            <v>470</v>
+            <v>903</v>
           </cell>
         </row>
         <row r="16">
@@ -1441,7 +1431,7 @@
           <cell r="B16"/>
           <cell r="C16"/>
           <cell r="D16">
-            <v>470</v>
+            <v>903</v>
           </cell>
         </row>
       </sheetData>
@@ -1460,30 +1450,30 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="A6">
-            <v>0.93498127665267405</v>
+            <v>0.87754119968020405</v>
           </cell>
           <cell r="B6">
-            <v>0.70737263088647895</v>
+            <v>0.57097230265883103</v>
           </cell>
           <cell r="C6">
-            <v>1.23508183723261</v>
+            <v>1.3505442235963601</v>
           </cell>
           <cell r="D6">
-            <v>903</v>
+            <v>470</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>0.860949979564964</v>
+            <v>1.02142104630222</v>
           </cell>
           <cell r="B7">
-            <v>0.61844410460496502</v>
+            <v>0.63113660564059804</v>
           </cell>
           <cell r="C7">
-            <v>1.1993864319783401</v>
+            <v>1.6390639251024399</v>
           </cell>
           <cell r="D7">
-            <v>903</v>
+            <v>470</v>
           </cell>
         </row>
         <row r="16">
@@ -1491,7 +1481,7 @@
           <cell r="B16"/>
           <cell r="C16"/>
           <cell r="D16">
-            <v>903</v>
+            <v>470</v>
           </cell>
         </row>
       </sheetData>
@@ -1510,13 +1500,13 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="A6">
-            <v>0.88552674442889401</v>
+            <v>0.95424068310277699</v>
           </cell>
           <cell r="B6">
-            <v>0.77253200067789995</v>
+            <v>0.88695043122199402</v>
           </cell>
           <cell r="C6">
-            <v>1.01458546649028</v>
+            <v>1.0265995044946501</v>
           </cell>
           <cell r="D6">
             <v>13792</v>
@@ -1524,13 +1514,13 @@
         </row>
         <row r="7">
           <cell r="A7">
-            <v>0.86677418546212404</v>
+            <v>1.0580836743016899</v>
           </cell>
           <cell r="B7">
-            <v>0.74674070073982901</v>
+            <v>0.96973300315758404</v>
           </cell>
           <cell r="C7">
-            <v>1.00776793901902</v>
+            <v>1.1547757495069999</v>
           </cell>
           <cell r="D7">
             <v>13792</v>
@@ -1538,13 +1528,13 @@
         </row>
         <row r="16">
           <cell r="A16">
-            <v>1.7734385160706101</v>
+            <v>0.65450939691419396</v>
           </cell>
           <cell r="B16">
-            <v>0.39150621299434601</v>
+            <v>0.32556579607964098</v>
           </cell>
           <cell r="C16">
-            <v>9.7493773192728597</v>
+            <v>1.3116538231630399</v>
           </cell>
           <cell r="D16">
             <v>13792</v>
@@ -1566,30 +1556,30 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="A6">
-            <v>1.06061217354616</v>
+            <v>5.6671012487993</v>
           </cell>
           <cell r="B6">
-            <v>0.79796091917385603</v>
+            <v>1.0567180620207799</v>
           </cell>
           <cell r="C6">
-            <v>1.4086536543002901</v>
+            <v>55.550432560135</v>
           </cell>
           <cell r="D6">
-            <v>1022</v>
+            <v>165</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>1.3687766254228499</v>
+            <v>1.09308616053189</v>
           </cell>
           <cell r="B7">
-            <v>0.95524995803936896</v>
+            <v>0.17822430553382099</v>
           </cell>
           <cell r="C7">
-            <v>1.9839956451140599</v>
+            <v>5.4712818594493697</v>
           </cell>
           <cell r="D7">
-            <v>1022</v>
+            <v>165</v>
           </cell>
         </row>
         <row r="16">
@@ -1597,7 +1587,7 @@
           <cell r="B16"/>
           <cell r="C16"/>
           <cell r="D16">
-            <v>1022</v>
+            <v>165</v>
           </cell>
         </row>
       </sheetData>
@@ -1616,44 +1606,44 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="A6">
-            <v>0.95424068310277699</v>
+            <v>0.95265678219671002</v>
           </cell>
           <cell r="B6">
-            <v>0.88695043122199402</v>
+            <v>0.85908842563927201</v>
           </cell>
           <cell r="C6">
-            <v>1.0265995044946501</v>
+            <v>1.05648462697794</v>
           </cell>
           <cell r="D6">
-            <v>13792</v>
+            <v>7347</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>1.0580836743016899</v>
+            <v>1.19375405521513</v>
           </cell>
           <cell r="B7">
-            <v>0.96973300315758404</v>
+            <v>1.06289573001523</v>
           </cell>
           <cell r="C7">
-            <v>1.1547757495069999</v>
+            <v>1.34033454869807</v>
           </cell>
           <cell r="D7">
-            <v>13792</v>
+            <v>7347</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>0.65450939691419396</v>
+            <v>0.55679690585979003</v>
           </cell>
           <cell r="B16">
-            <v>0.32556579607964098</v>
+            <v>0.21925472941622301</v>
           </cell>
           <cell r="C16">
-            <v>1.3116538231630399</v>
+            <v>1.4083794709883899</v>
           </cell>
           <cell r="D16">
-            <v>13792</v>
+            <v>7347</v>
           </cell>
         </row>
       </sheetData>
@@ -1672,44 +1662,44 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="A6">
-            <v>0.95265678219671002</v>
+            <v>1.1293215927421001</v>
           </cell>
           <cell r="B6">
-            <v>0.85908842563927201</v>
+            <v>0.85652400589221001</v>
           </cell>
           <cell r="C6">
-            <v>1.05648462697794</v>
+            <v>1.4934110790152899</v>
           </cell>
           <cell r="D6">
-            <v>7347</v>
+            <v>2122</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>1.19375405521513</v>
+            <v>1.04543302069695</v>
           </cell>
           <cell r="B7">
-            <v>1.06289573001523</v>
+            <v>0.75769438678501699</v>
           </cell>
           <cell r="C7">
-            <v>1.34033454869807</v>
+            <v>1.4299038900488601</v>
           </cell>
           <cell r="D7">
-            <v>7347</v>
+            <v>2122</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>0.55679690585979003</v>
+            <v>0.81414201003077502</v>
           </cell>
           <cell r="B16">
-            <v>0.21925472941622301</v>
+            <v>0.132203391362199</v>
           </cell>
           <cell r="C16">
-            <v>1.4083794709883899</v>
+            <v>4.9080512541362804</v>
           </cell>
           <cell r="D16">
-            <v>7347</v>
+            <v>2122</v>
           </cell>
         </row>
       </sheetData>
@@ -1726,51 +1716,46 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="5">
-          <cell r="A5">
-            <v>0.99790004245643005</v>
-          </cell>
-        </row>
         <row r="6">
           <cell r="A6">
-            <v>1.1293215927421001</v>
+            <v>0.93193549267069598</v>
           </cell>
           <cell r="B6">
-            <v>0.85652400589221001</v>
+            <v>0.85936521579605396</v>
           </cell>
           <cell r="C6">
-            <v>1.4934110790152899</v>
+            <v>1.0104998259659199</v>
           </cell>
           <cell r="D6">
-            <v>2122</v>
+            <v>40102</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>1.04543302069695</v>
+            <v>0.89772235770681497</v>
           </cell>
           <cell r="B7">
-            <v>0.75769438678501699</v>
+            <v>0.82095060102182105</v>
           </cell>
           <cell r="C7">
-            <v>1.4299038900488601</v>
+            <v>0.98227683235655205</v>
           </cell>
           <cell r="D7">
-            <v>2122</v>
+            <v>40102</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>0.81414201003077502</v>
+            <v>0.78817570510651702</v>
           </cell>
           <cell r="B16">
-            <v>0.132203391362199</v>
+            <v>0.32750340381487902</v>
           </cell>
           <cell r="C16">
-            <v>4.9080512541362804</v>
+            <v>1.9264638925959601</v>
           </cell>
           <cell r="D16">
-            <v>2122</v>
+            <v>40102</v>
           </cell>
         </row>
       </sheetData>
@@ -1789,44 +1774,44 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="A6">
-            <v>0.92801440653176603</v>
+            <v>0.88308476061319896</v>
           </cell>
           <cell r="B6">
-            <v>0.88583629039011602</v>
+            <v>0.71062509196656498</v>
           </cell>
           <cell r="C6">
-            <v>0.97219176543607999</v>
+            <v>1.0960622563182201</v>
           </cell>
           <cell r="D6">
-            <v>40102</v>
+            <v>16841</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>1.0758075826464299</v>
+            <v>0.88330360060568003</v>
           </cell>
           <cell r="B7">
-            <v>1.0181177086950901</v>
+            <v>0.69233095250719701</v>
           </cell>
           <cell r="C7">
-            <v>1.1368938525893899</v>
+            <v>1.13560974688265</v>
           </cell>
           <cell r="D7">
-            <v>40102</v>
+            <v>16841</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>0.93991173507818004</v>
+            <v>0.36922410696255098</v>
           </cell>
           <cell r="B16">
-            <v>0.60343820512443003</v>
+            <v>3.7406044381355003E-2</v>
           </cell>
           <cell r="C16">
-            <v>1.46318284775917</v>
+            <v>3.6016823769201398</v>
           </cell>
           <cell r="D16">
-            <v>40102</v>
+            <v>16841</v>
           </cell>
         </row>
       </sheetData>
@@ -1845,44 +1830,44 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="A6">
-            <v>1.0647412973936199</v>
+            <v>0.88552674442889401</v>
           </cell>
           <cell r="B6">
-            <v>0.92763637837422896</v>
+            <v>0.77253200067789995</v>
           </cell>
           <cell r="C6">
-            <v>1.2217973373679201</v>
+            <v>1.01458546649028</v>
           </cell>
           <cell r="D6">
-            <v>7347</v>
+            <v>13792</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>0.88671185277487996</v>
+            <v>0.86677418546212404</v>
           </cell>
           <cell r="B7">
-            <v>0.76416035116314396</v>
+            <v>0.74674070073982901</v>
           </cell>
           <cell r="C7">
-            <v>1.0303300297763001</v>
+            <v>1.00776793901902</v>
           </cell>
           <cell r="D7">
-            <v>7347</v>
+            <v>13792</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>1.1466078133067299</v>
+            <v>1.7734385160706101</v>
           </cell>
           <cell r="B16">
-            <v>0.25271899012037902</v>
+            <v>0.39150621299434601</v>
           </cell>
           <cell r="C16">
-            <v>5.74514358080721</v>
+            <v>9.7493773192728597</v>
           </cell>
           <cell r="D16">
-            <v>7347</v>
+            <v>13792</v>
           </cell>
         </row>
       </sheetData>
@@ -1899,51 +1884,46 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="3">
-          <cell r="A3">
-            <v>1.5232307834290799</v>
-          </cell>
-        </row>
         <row r="6">
           <cell r="A6">
-            <v>0.83110130983091701</v>
+            <v>1.0647412973936199</v>
           </cell>
           <cell r="B6">
-            <v>0.67904617093298902</v>
+            <v>0.92763637837422896</v>
           </cell>
           <cell r="C6">
-            <v>1.0162472055081699</v>
+            <v>1.2217973373679201</v>
           </cell>
           <cell r="D6">
-            <v>2122</v>
+            <v>7347</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>1.07884149106663</v>
+            <v>0.88671185277487996</v>
           </cell>
           <cell r="B7">
-            <v>0.85737030924388502</v>
+            <v>0.76416035116314396</v>
           </cell>
           <cell r="C7">
-            <v>1.3617427535154201</v>
+            <v>1.0303300297763001</v>
           </cell>
           <cell r="D7">
-            <v>2122</v>
+            <v>7347</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>0.222663902707773</v>
+            <v>1.1466078133067299</v>
           </cell>
           <cell r="B16">
-            <v>3.0356537030997301E-2</v>
+            <v>0.25271899012037902</v>
           </cell>
           <cell r="C16">
-            <v>1.57268221864028</v>
+            <v>5.74514358080721</v>
           </cell>
           <cell r="D16">
-            <v>2122</v>
+            <v>7347</v>
           </cell>
         </row>
       </sheetData>
@@ -2251,7 +2231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1ECD563-62B7-7B49-B8A8-CE1F8750D520}">
   <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
+    <sheetView zoomScale="183" zoomScaleNormal="183" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -2266,61 +2246,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="19">
-        <f>'[7]Sheet 1'!A7</f>
+      <c r="B2" s="13">
+        <f>'[1]Sheet 1'!A7</f>
         <v>1.0758075826464299</v>
       </c>
-      <c r="C2" s="19">
-        <f>'[7]Sheet 1'!B7</f>
+      <c r="C2" s="13">
+        <f>'[1]Sheet 1'!B7</f>
         <v>1.0181177086950901</v>
       </c>
-      <c r="D2" s="19">
-        <f>'[7]Sheet 1'!C7</f>
+      <c r="D2" s="13">
+        <f>'[1]Sheet 1'!C7</f>
         <v>1.1368938525893899</v>
       </c>
-      <c r="E2" s="19">
-        <f>'[7]Sheet 1'!D7</f>
+      <c r="E2" s="13">
+        <f>'[1]Sheet 1'!D7</f>
         <v>40102</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="13" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="2"/>
@@ -2336,26 +2316,26 @@
       <c r="V2" s="2"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="19">
-        <f>'[1]Sheet 1'!A7</f>
+      <c r="B3" s="13">
+        <f>'[2]Sheet 1'!A7</f>
         <v>1.0194975559623101</v>
       </c>
-      <c r="C3" s="19">
-        <f>'[1]Sheet 1'!B7</f>
+      <c r="C3" s="13">
+        <f>'[2]Sheet 1'!B7</f>
         <v>0.92773305071562895</v>
       </c>
-      <c r="D3" s="19">
-        <f>'[1]Sheet 1'!C7</f>
+      <c r="D3" s="13">
+        <f>'[2]Sheet 1'!C7</f>
         <v>1.1212465318856599</v>
       </c>
-      <c r="E3" s="19">
-        <f>'[1]Sheet 1'!D7</f>
+      <c r="E3" s="13">
+        <f>'[2]Sheet 1'!D7</f>
         <v>16841</v>
       </c>
-      <c r="F3" s="19"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -2374,26 +2354,26 @@
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="20">
-        <f>'[4]Sheet 1'!A7</f>
+      <c r="B4" s="14">
+        <f>'[3]Sheet 1'!A7</f>
         <v>1.0580836743016899</v>
       </c>
-      <c r="C4" s="20">
-        <f>'[4]Sheet 1'!B7</f>
+      <c r="C4" s="14">
+        <f>'[3]Sheet 1'!B7</f>
         <v>0.96973300315758404</v>
       </c>
-      <c r="D4" s="20">
-        <f>'[4]Sheet 1'!C7</f>
+      <c r="D4" s="14">
+        <f>'[3]Sheet 1'!C7</f>
         <v>1.1547757495069999</v>
       </c>
-      <c r="E4" s="20">
-        <f>'[4]Sheet 1'!D7</f>
+      <c r="E4" s="14">
+        <f>'[3]Sheet 1'!D7</f>
         <v>13792</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="2"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2412,26 +2392,26 @@
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="19">
-        <f>'[5]Sheet 1'!A7</f>
+      <c r="B5" s="13">
+        <f>'[4]Sheet 1'!A7</f>
         <v>1.19375405521513</v>
       </c>
-      <c r="C5" s="19">
-        <f>'[5]Sheet 1'!B7</f>
+      <c r="C5" s="13">
+        <f>'[4]Sheet 1'!B7</f>
         <v>1.06289573001523</v>
       </c>
-      <c r="D5" s="19">
-        <f>'[5]Sheet 1'!C7</f>
+      <c r="D5" s="13">
+        <f>'[4]Sheet 1'!C7</f>
         <v>1.34033454869807</v>
       </c>
-      <c r="E5" s="19">
-        <f>'[5]Sheet 1'!D7</f>
+      <c r="E5" s="13">
+        <f>'[4]Sheet 1'!D7</f>
         <v>7347</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="2"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -2450,26 +2430,26 @@
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="19">
-        <f>'[6]Sheet 1'!A7</f>
+      <c r="B6" s="13">
+        <f>'[5]Sheet 1'!A7</f>
         <v>1.04543302069695</v>
       </c>
-      <c r="C6" s="19">
-        <f>'[6]Sheet 1'!B7</f>
+      <c r="C6" s="13">
+        <f>'[5]Sheet 1'!B7</f>
         <v>0.75769438678501699</v>
       </c>
-      <c r="D6" s="19">
-        <f>'[6]Sheet 1'!C7</f>
+      <c r="D6" s="13">
+        <f>'[5]Sheet 1'!C7</f>
         <v>1.4299038900488601</v>
       </c>
-      <c r="E6" s="19">
-        <f>'[6]Sheet 1'!D7</f>
+      <c r="E6" s="13">
+        <f>'[5]Sheet 1'!D7</f>
         <v>2122</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1"/>
       <c r="I6" s="3"/>
@@ -2488,568 +2468,568 @@
       <c r="V6" s="3"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="19">
-        <f>'[10]Sheet 1'!A7</f>
+      <c r="B7" s="13">
+        <f>'[6]Sheet 1'!A7</f>
         <v>0.89772235770681497</v>
       </c>
-      <c r="C7" s="19">
-        <f>'[10]Sheet 1'!B7</f>
+      <c r="C7" s="13">
+        <f>'[6]Sheet 1'!B7</f>
         <v>0.82095060102182105</v>
       </c>
-      <c r="D7" s="19">
-        <f>'[10]Sheet 1'!C7</f>
+      <c r="D7" s="13">
+        <f>'[6]Sheet 1'!C7</f>
         <v>0.98227683235655205</v>
       </c>
-      <c r="E7" s="19">
-        <f>'[10]Sheet 1'!D7</f>
+      <c r="E7" s="13">
+        <f>'[6]Sheet 1'!D7</f>
         <v>40102</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="19">
-        <f>'[2]Sheet 1'!A7</f>
+      <c r="B8" s="13">
+        <f>'[7]Sheet 1'!A7</f>
         <v>0.88330360060568003</v>
       </c>
-      <c r="C8" s="19">
-        <f>'[2]Sheet 1'!B7</f>
+      <c r="C8" s="13">
+        <f>'[7]Sheet 1'!B7</f>
         <v>0.69233095250719701</v>
       </c>
-      <c r="D8" s="19">
-        <f>'[2]Sheet 1'!C7</f>
+      <c r="D8" s="13">
+        <f>'[7]Sheet 1'!C7</f>
         <v>1.13560974688265</v>
       </c>
-      <c r="E8" s="19">
-        <f>'[2]Sheet 1'!D7</f>
+      <c r="E8" s="13">
+        <f>'[7]Sheet 1'!D7</f>
         <v>16841</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="19">
-        <f>'[3]Sheet 1'!A7</f>
+      <c r="B9" s="13">
+        <f>'[8]Sheet 1'!A7</f>
         <v>0.86677418546212404</v>
       </c>
-      <c r="C9" s="19">
-        <f>'[3]Sheet 1'!B7</f>
+      <c r="C9" s="13">
+        <f>'[8]Sheet 1'!B7</f>
         <v>0.74674070073982901</v>
       </c>
-      <c r="D9" s="19">
-        <f>'[3]Sheet 1'!C7</f>
+      <c r="D9" s="13">
+        <f>'[8]Sheet 1'!C7</f>
         <v>1.00776793901902</v>
       </c>
-      <c r="E9" s="19">
-        <f>'[3]Sheet 1'!D7</f>
+      <c r="E9" s="13">
+        <f>'[8]Sheet 1'!D7</f>
         <v>13792</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="19">
-        <f>'[8]Sheet 1'!A7</f>
+      <c r="B10" s="13">
+        <f>'[9]Sheet 1'!A7</f>
         <v>0.88671185277487996</v>
       </c>
-      <c r="C10" s="19">
-        <f>'[8]Sheet 1'!B7</f>
+      <c r="C10" s="13">
+        <f>'[9]Sheet 1'!B7</f>
         <v>0.76416035116314396</v>
       </c>
-      <c r="D10" s="19">
-        <f>'[8]Sheet 1'!C7</f>
+      <c r="D10" s="13">
+        <f>'[9]Sheet 1'!C7</f>
         <v>1.0303300297763001</v>
       </c>
-      <c r="E10" s="19">
-        <f>'[8]Sheet 1'!D7</f>
+      <c r="E10" s="13">
+        <f>'[9]Sheet 1'!D7</f>
         <v>7347</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="19">
-        <f>'[9]Sheet 1'!A7</f>
+      <c r="B11" s="13">
+        <f>'[10]Sheet 1'!A7</f>
         <v>1.07884149106663</v>
       </c>
-      <c r="C11" s="19">
-        <f>'[9]Sheet 1'!B7</f>
+      <c r="C11" s="13">
+        <f>'[10]Sheet 1'!B7</f>
         <v>0.85737030924388502</v>
       </c>
-      <c r="D11" s="19">
-        <f>'[9]Sheet 1'!C7</f>
+      <c r="D11" s="13">
+        <f>'[10]Sheet 1'!C7</f>
         <v>1.3617427535154201</v>
       </c>
-      <c r="E11" s="19">
-        <f>'[9]Sheet 1'!D7</f>
+      <c r="E11" s="13">
+        <f>'[10]Sheet 1'!D7</f>
         <v>2122</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="13">
+        <f>'[11]Sheet 1'!A7</f>
+        <v>1.1160789640398701</v>
+      </c>
+      <c r="C12" s="13">
+        <f>'[11]Sheet 1'!B7</f>
+        <v>1.0581535500902199</v>
+      </c>
+      <c r="D12" s="13">
+        <f>'[11]Sheet 1'!C7</f>
+        <v>1.1772787418683399</v>
+      </c>
+      <c r="E12" s="13">
+        <f>'[11]Sheet 1'!D7</f>
+        <v>40102</v>
+      </c>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="13">
+        <f>'[12]Sheet 1'!A7</f>
+        <v>1.06140777591308</v>
+      </c>
+      <c r="C13" s="13">
+        <f>'[12]Sheet 1'!B7</f>
+        <v>0.97181381939413602</v>
+      </c>
+      <c r="D13" s="13">
+        <f>'[12]Sheet 1'!C7</f>
+        <v>1.1600179950418501</v>
+      </c>
+      <c r="E13" s="13">
+        <f>'[12]Sheet 1'!D7</f>
+        <v>16841</v>
+      </c>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="13">
+        <f>'[13]Sheet 1'!A7</f>
+        <v>1.1623424449941899</v>
+      </c>
+      <c r="C14" s="13">
+        <f>'[13]Sheet 1'!B7</f>
+        <v>1.06913463670513</v>
+      </c>
+      <c r="D14" s="13">
+        <f>'[13]Sheet 1'!C7</f>
+        <v>1.2639855669553099</v>
+      </c>
+      <c r="E14" s="13">
+        <f>'[13]Sheet 1'!D7</f>
+        <v>13792</v>
+      </c>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="13">
         <f>'[14]Sheet 1'!A7</f>
-        <v>1.1160789640398701</v>
-      </c>
-      <c r="C12" s="19">
+        <v>1.13929469846617</v>
+      </c>
+      <c r="C15" s="13">
         <f>'[14]Sheet 1'!B7</f>
-        <v>1.0581535500902199</v>
-      </c>
-      <c r="D12" s="19">
+        <v>1.01394664803794</v>
+      </c>
+      <c r="D15" s="13">
         <f>'[14]Sheet 1'!C7</f>
-        <v>1.1772787418683399</v>
-      </c>
-      <c r="E12" s="19">
+        <v>1.2794379738445401</v>
+      </c>
+      <c r="E15" s="13">
         <f>'[14]Sheet 1'!D7</f>
-        <v>40102</v>
-      </c>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="19">
-        <f>'[11]Sheet 1'!A7</f>
-        <v>1.06140777591308</v>
-      </c>
-      <c r="C13" s="19">
-        <f>'[11]Sheet 1'!B7</f>
-        <v>0.97181381939413602</v>
-      </c>
-      <c r="D13" s="19">
-        <f>'[11]Sheet 1'!C7</f>
-        <v>1.1600179950418501</v>
-      </c>
-      <c r="E13" s="19">
-        <f>'[11]Sheet 1'!D7</f>
-        <v>16841</v>
-      </c>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="19">
-        <f>'[12]Sheet 1'!A7</f>
-        <v>1.1623424449941899</v>
-      </c>
-      <c r="C14" s="19">
-        <f>'[12]Sheet 1'!B7</f>
-        <v>1.06913463670513</v>
-      </c>
-      <c r="D14" s="19">
-        <f>'[12]Sheet 1'!C7</f>
-        <v>1.2639855669553099</v>
-      </c>
-      <c r="E14" s="19">
-        <f>'[12]Sheet 1'!D7</f>
-        <v>13792</v>
-      </c>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="19">
-        <f>'[13]Sheet 1'!A7</f>
-        <v>1.13929469846617</v>
-      </c>
-      <c r="C15" s="19">
-        <f>'[13]Sheet 1'!B7</f>
-        <v>1.01394664803794</v>
-      </c>
-      <c r="D15" s="19">
-        <f>'[13]Sheet 1'!C7</f>
-        <v>1.2794379738445401</v>
-      </c>
-      <c r="E15" s="19">
-        <f>'[13]Sheet 1'!D7</f>
         <v>7347</v>
       </c>
-      <c r="F15" s="19"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="13">
         <f>'[15]Sheet 1'!A7</f>
         <v>0.96386807740081004</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="13">
         <f>'[15]Sheet 1'!B7</f>
         <v>0.653399694580024</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="13">
         <f>'[15]Sheet 1'!C7</f>
         <v>1.39934571799637</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="13">
         <f>'[15]Sheet 1'!D7</f>
         <v>2122</v>
       </c>
-      <c r="F16" s="19"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="19" t="s">
-        <v>25</v>
+      <c r="A17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="13">
         <f>'[16]Sheet 1'!A7</f>
         <v>1.1541033640556999</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="13">
         <f>'[16]Sheet 1'!B7</f>
         <v>0.926139347718683</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="13">
         <f>'[16]Sheet 1'!C7</f>
         <v>1.44172840903304</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="13">
         <f>'[16]Sheet 1'!D7</f>
         <v>2560</v>
       </c>
-      <c r="F18" s="19"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="16">
+        <f>'[17]Sheet 1'!A7</f>
+        <v>0.85230699532003296</v>
+      </c>
+      <c r="C19" s="17">
+        <f>'[17]Sheet 1'!B7</f>
+        <v>0.58120445562074297</v>
+      </c>
+      <c r="D19" s="17">
+        <f>'[17]Sheet 1'!C7</f>
+        <v>1.2640234895059701</v>
+      </c>
+      <c r="E19" s="13">
+        <f>'[17]Sheet 1'!D7</f>
+        <v>1022</v>
+      </c>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="13">
+        <f>'[18]Sheet 1'!A7</f>
+        <v>1.14610432091857</v>
+      </c>
+      <c r="C20" s="13">
+        <f>'[18]Sheet 1'!B7</f>
+        <v>0.79807995225833395</v>
+      </c>
+      <c r="D20" s="13">
+        <f>'[18]Sheet 1'!C7</f>
+        <v>1.6602639441613001</v>
+      </c>
+      <c r="E20" s="13">
+        <f>'[18]Sheet 1'!D7</f>
+        <v>903</v>
+      </c>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="13">
+        <f>'[19]Sheet 1'!A7</f>
+        <v>1.89138245096455</v>
+      </c>
+      <c r="C21" s="13">
+        <f>'[19]Sheet 1'!B7</f>
+        <v>1.18961279767967</v>
+      </c>
+      <c r="D21" s="13">
+        <f>'[19]Sheet 1'!C7</f>
+        <v>3.0237203040942</v>
+      </c>
+      <c r="E21" s="13">
+        <f>'[19]Sheet 1'!D7</f>
+        <v>470</v>
+      </c>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="13">
         <f>'[20]Sheet 1'!A7</f>
-        <v>0.85230699532003296</v>
-      </c>
-      <c r="C19" s="23">
+        <v>0.73830600053562501</v>
+      </c>
+      <c r="C22" s="13">
         <f>'[20]Sheet 1'!B7</f>
-        <v>0.58120445562074297</v>
-      </c>
-      <c r="D19" s="23">
+        <v>0.26049871668577002</v>
+      </c>
+      <c r="D22" s="13">
         <f>'[20]Sheet 1'!C7</f>
-        <v>1.2640234895059701</v>
-      </c>
-      <c r="E19" s="19">
+        <v>1.9573527718761501</v>
+      </c>
+      <c r="E22" s="13">
         <f>'[20]Sheet 1'!D7</f>
-        <v>1022</v>
-      </c>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="19">
-        <f>'[19]Sheet 1'!A7</f>
-        <v>1.14610432091857</v>
-      </c>
-      <c r="C20" s="19">
-        <f>'[19]Sheet 1'!B7</f>
-        <v>0.79807995225833395</v>
-      </c>
-      <c r="D20" s="19">
-        <f>'[19]Sheet 1'!C7</f>
-        <v>1.6602639441613001</v>
-      </c>
-      <c r="E20" s="19">
-        <f>'[19]Sheet 1'!D7</f>
-        <v>903</v>
-      </c>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="19">
-        <f>'[18]Sheet 1'!A7</f>
-        <v>1.89138245096455</v>
-      </c>
-      <c r="C21" s="19">
-        <f>'[18]Sheet 1'!B7</f>
-        <v>1.18961279767967</v>
-      </c>
-      <c r="D21" s="19">
-        <f>'[18]Sheet 1'!C7</f>
-        <v>3.0237203040942</v>
-      </c>
-      <c r="E21" s="19">
-        <f>'[18]Sheet 1'!D7</f>
-        <v>470</v>
-      </c>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="19">
-        <f>'[17]Sheet 1'!A7</f>
-        <v>0.73830600053562501</v>
-      </c>
-      <c r="C22" s="19">
-        <f>'[17]Sheet 1'!B7</f>
-        <v>0.26049871668577002</v>
-      </c>
-      <c r="D22" s="19">
-        <f>'[17]Sheet 1'!C7</f>
-        <v>1.9573527718761501</v>
-      </c>
-      <c r="E22" s="19">
-        <f>'[17]Sheet 1'!D7</f>
         <v>165</v>
       </c>
-      <c r="F22" s="19"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="13">
         <f>'[21]Sheet 1'!A7</f>
         <v>0.73333144348611501</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="13">
         <f>'[21]Sheet 1'!B7</f>
         <v>0.49936431051532798</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="13">
         <f>'[21]Sheet 1'!C7</f>
         <v>1.08956469617282</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="13">
         <f>'[21]Sheet 1'!D7</f>
         <v>2560</v>
       </c>
-      <c r="F23" s="19"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="13">
+        <f>'[22]Sheet 1'!A7</f>
+        <v>0.71540697845093204</v>
+      </c>
+      <c r="C24" s="13">
+        <f>'[22]Sheet 1'!B7</f>
+        <v>0.249633667769776</v>
+      </c>
+      <c r="D24" s="13">
+        <f>'[22]Sheet 1'!C7</f>
+        <v>2.3672023836554499</v>
+      </c>
+      <c r="E24" s="13">
+        <f>'[22]Sheet 1'!D7</f>
+        <v>1022</v>
+      </c>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="13">
+        <f>'[23]Sheet 1'!A7</f>
+        <v>0.81409880799780199</v>
+      </c>
+      <c r="C25" s="13">
+        <f>'[23]Sheet 1'!B7</f>
+        <v>0.42052191270922001</v>
+      </c>
+      <c r="D25" s="13">
+        <f>'[23]Sheet 1'!C7</f>
+        <v>1.64520681065609</v>
+      </c>
+      <c r="E25" s="13">
+        <f>'[23]Sheet 1'!D7</f>
+        <v>903</v>
+      </c>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="13">
+        <f>'[24]Sheet 1'!A7</f>
+        <v>0.67254611163682698</v>
+      </c>
+      <c r="C26" s="13">
+        <f>'[24]Sheet 1'!B7</f>
+        <v>0.34225834162281099</v>
+      </c>
+      <c r="D26" s="13">
+        <f>'[24]Sheet 1'!C7</f>
+        <v>1.3472367683055799</v>
+      </c>
+      <c r="E26" s="13">
+        <f>'[24]Sheet 1'!D7</f>
+        <v>470</v>
+      </c>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="13">
         <f>'[25]Sheet 1'!A7</f>
-        <v>0.71540697845093204</v>
-      </c>
-      <c r="C24" s="19">
+        <v>0.82486959078028199</v>
+      </c>
+      <c r="C27" s="13">
         <f>'[25]Sheet 1'!B7</f>
-        <v>0.249633667769776</v>
-      </c>
-      <c r="D24" s="19">
+        <v>0.31182807212811497</v>
+      </c>
+      <c r="D27" s="13">
         <f>'[25]Sheet 1'!C7</f>
-        <v>2.3672023836554499</v>
-      </c>
-      <c r="E24" s="19">
+        <v>2.27286896323734</v>
+      </c>
+      <c r="E27" s="13">
         <f>'[25]Sheet 1'!D7</f>
-        <v>1022</v>
-      </c>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="19">
-        <f>'[24]Sheet 1'!A7</f>
-        <v>0.81409880799780199</v>
-      </c>
-      <c r="C25" s="19">
-        <f>'[24]Sheet 1'!B7</f>
-        <v>0.42052191270922001</v>
-      </c>
-      <c r="D25" s="19">
-        <f>'[24]Sheet 1'!C7</f>
-        <v>1.64520681065609</v>
-      </c>
-      <c r="E25" s="19">
-        <f>'[24]Sheet 1'!D7</f>
-        <v>903</v>
-      </c>
-      <c r="F25" s="19"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="19">
-        <f>'[23]Sheet 1'!A7</f>
-        <v>0.67254611163682698</v>
-      </c>
-      <c r="C26" s="19">
-        <f>'[23]Sheet 1'!B7</f>
-        <v>0.34225834162281099</v>
-      </c>
-      <c r="D26" s="19">
-        <f>'[23]Sheet 1'!C7</f>
-        <v>1.3472367683055799</v>
-      </c>
-      <c r="E26" s="19">
-        <f>'[23]Sheet 1'!D7</f>
-        <v>470</v>
-      </c>
-      <c r="F26" s="19"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="19">
-        <f>'[22]Sheet 1'!A7</f>
-        <v>0.82486959078028199</v>
-      </c>
-      <c r="C27" s="19">
-        <f>'[22]Sheet 1'!B7</f>
-        <v>0.31182807212811497</v>
-      </c>
-      <c r="D27" s="19">
-        <f>'[22]Sheet 1'!C7</f>
-        <v>2.27286896323734</v>
-      </c>
-      <c r="E27" s="19">
-        <f>'[22]Sheet 1'!D7</f>
         <v>165</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="13">
         <f>'[26]Sheet 1'!A7</f>
         <v>1.0530969960549701</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="13">
         <f>'[26]Sheet 1'!B7</f>
         <v>0.853657894283536</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="13">
         <f>'[26]Sheet 1'!C7</f>
         <v>1.30033147314669</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="13">
         <f>'[26]Sheet 1'!D7</f>
         <v>2560</v>
       </c>
-      <c r="F28" s="19"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="13">
+        <f>'[27]Sheet 1'!A7</f>
+        <v>1.3687766254228499</v>
+      </c>
+      <c r="C29" s="13">
+        <f>'[27]Sheet 1'!B7</f>
+        <v>0.95524995803936896</v>
+      </c>
+      <c r="D29" s="13">
+        <f>'[27]Sheet 1'!C7</f>
+        <v>1.9839956451140599</v>
+      </c>
+      <c r="E29" s="13">
+        <f>'[27]Sheet 1'!D7</f>
+        <v>1022</v>
+      </c>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="13">
+        <f>'[28]Sheet 1'!A7</f>
+        <v>0.860949979564964</v>
+      </c>
+      <c r="C30" s="13">
+        <f>'[28]Sheet 1'!B7</f>
+        <v>0.61844410460496502</v>
+      </c>
+      <c r="D30" s="13">
+        <f>'[28]Sheet 1'!C7</f>
+        <v>1.1993864319783401</v>
+      </c>
+      <c r="E30" s="13">
+        <f>'[28]Sheet 1'!D7</f>
+        <v>903</v>
+      </c>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="13">
+        <f>'[29]Sheet 1'!A7</f>
+        <v>1.02142104630222</v>
+      </c>
+      <c r="C31" s="13">
+        <f>'[29]Sheet 1'!B7</f>
+        <v>0.63113660564059804</v>
+      </c>
+      <c r="D31" s="13">
+        <f>'[29]Sheet 1'!C7</f>
+        <v>1.6390639251024399</v>
+      </c>
+      <c r="E31" s="13">
+        <f>'[29]Sheet 1'!D7</f>
+        <v>470</v>
+      </c>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="13">
         <f>'[30]Sheet 1'!A7</f>
-        <v>1.3687766254228499</v>
-      </c>
-      <c r="C29" s="19">
+        <v>1.09308616053189</v>
+      </c>
+      <c r="C32" s="13">
         <f>'[30]Sheet 1'!B7</f>
-        <v>0.95524995803936896</v>
-      </c>
-      <c r="D29" s="19">
+        <v>0.17822430553382099</v>
+      </c>
+      <c r="D32" s="13">
         <f>'[30]Sheet 1'!C7</f>
-        <v>1.9839956451140599</v>
-      </c>
-      <c r="E29" s="19">
+        <v>5.4712818594493697</v>
+      </c>
+      <c r="E32" s="13">
         <f>'[30]Sheet 1'!D7</f>
-        <v>1022</v>
-      </c>
-      <c r="F29" s="19"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="19">
-        <f>'[29]Sheet 1'!A7</f>
-        <v>0.860949979564964</v>
-      </c>
-      <c r="C30" s="19">
-        <f>'[29]Sheet 1'!B7</f>
-        <v>0.61844410460496502</v>
-      </c>
-      <c r="D30" s="19">
-        <f>'[29]Sheet 1'!C7</f>
-        <v>1.1993864319783401</v>
-      </c>
-      <c r="E30" s="19">
-        <f>'[29]Sheet 1'!D7</f>
-        <v>903</v>
-      </c>
-      <c r="F30" s="19"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="19">
-        <f>'[28]Sheet 1'!A7</f>
-        <v>1.02142104630222</v>
-      </c>
-      <c r="C31" s="19">
-        <f>'[28]Sheet 1'!B7</f>
-        <v>0.63113660564059804</v>
-      </c>
-      <c r="D31" s="19">
-        <f>'[28]Sheet 1'!C7</f>
-        <v>1.6390639251024399</v>
-      </c>
-      <c r="E31" s="19">
-        <f>'[28]Sheet 1'!D7</f>
-        <v>470</v>
-      </c>
-      <c r="F31" s="19"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="19">
-        <f>'[27]Sheet 1'!A7</f>
-        <v>1.09308616053189</v>
-      </c>
-      <c r="C32" s="19">
-        <f>'[27]Sheet 1'!B7</f>
-        <v>0.17822430553382099</v>
-      </c>
-      <c r="D32" s="19">
-        <f>'[27]Sheet 1'!C7</f>
-        <v>5.4712818594493697</v>
-      </c>
-      <c r="E32" s="19">
-        <f>'[27]Sheet 1'!D7</f>
         <v>165</v>
       </c>
-      <c r="F32" s="19"/>
+      <c r="F32" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3083,17 +3063,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="2:8" ht="19.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
@@ -3119,7 +3099,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="19.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -3147,9 +3127,9 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="19.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="15"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="9" t="str">
         <f>_xlfn.CONCAT(ROUND(data_ethno!B18, 2), " (", ROUND(data_ethno!C18,2), " - ", ROUND(data_ethno!D18,2),  ")")</f>
@@ -3173,7 +3153,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="19.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -3201,9 +3181,9 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="19.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="15"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="9" t="str">
         <f>_xlfn.CONCAT(ROUND(data_ethno!B23, 2), " (", ROUND(data_ethno!C23,2), " - ", ROUND(data_ethno!D23,2),  ")")</f>
@@ -3227,7 +3207,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="19.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -3255,9 +3235,9 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="19.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="15"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="9" t="str">
         <f>_xlfn.CONCAT(ROUND(data_ethno!B28, 2), " (", ROUND(data_ethno!C28,2), " - ", ROUND(data_ethno!D28,2),  ")")</f>
@@ -3281,8 +3261,8 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="14" t="s">
-        <v>22</v>
+      <c r="B10" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>10</v>
@@ -3309,27 +3289,27 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="15"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="18">
+        <v>23</v>
+      </c>
+      <c r="D11" s="12">
         <f>data_ethno!E18</f>
         <v>2560</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="12">
         <f>data_ethno!E19</f>
         <v>1022</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="12">
         <f>data_ethno!E20</f>
         <v>903</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="12">
         <f>data_ethno!E21</f>
         <v>470</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="12">
         <f>data_ethno!E22</f>
         <v>165</v>
       </c>
@@ -3367,61 +3347,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="19">
-        <f>'[7]Sheet 1'!A6</f>
+      <c r="B2" s="13">
+        <f>'[1]Sheet 1'!A6</f>
         <v>0.92801440653176603</v>
       </c>
-      <c r="C2" s="19">
-        <f>'[7]Sheet 1'!B6</f>
+      <c r="C2" s="13">
+        <f>'[1]Sheet 1'!B6</f>
         <v>0.88583629039011602</v>
       </c>
-      <c r="D2" s="19">
-        <f>'[7]Sheet 1'!C6</f>
+      <c r="D2" s="13">
+        <f>'[1]Sheet 1'!C6</f>
         <v>0.97219176543607999</v>
       </c>
-      <c r="E2" s="19">
-        <f>'[7]Sheet 1'!D6</f>
+      <c r="E2" s="13">
+        <f>'[1]Sheet 1'!D6</f>
         <v>40102</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="13" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="2"/>
@@ -3437,26 +3417,26 @@
       <c r="V2" s="2"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="19">
-        <f>'[1]Sheet 1'!A6</f>
+      <c r="B3" s="13">
+        <f>'[2]Sheet 1'!A6</f>
         <v>0.86729140631055002</v>
       </c>
-      <c r="C3" s="19">
-        <f>'[1]Sheet 1'!B6</f>
+      <c r="C3" s="13">
+        <f>'[2]Sheet 1'!B6</f>
         <v>0.80209927902272204</v>
       </c>
-      <c r="D3" s="19">
-        <f>'[1]Sheet 1'!C6</f>
+      <c r="D3" s="13">
+        <f>'[2]Sheet 1'!C6</f>
         <v>0.93771230822654295</v>
       </c>
-      <c r="E3" s="19">
-        <f>'[1]Sheet 1'!D6</f>
+      <c r="E3" s="13">
+        <f>'[2]Sheet 1'!D6</f>
         <v>16841</v>
       </c>
-      <c r="F3" s="19"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -3475,26 +3455,26 @@
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="20">
-        <f>'[4]Sheet 1'!A6</f>
+      <c r="B4" s="14">
+        <f>'[3]Sheet 1'!A6</f>
         <v>0.95424068310277699</v>
       </c>
-      <c r="C4" s="20">
-        <f>'[4]Sheet 1'!B6</f>
+      <c r="C4" s="14">
+        <f>'[3]Sheet 1'!B6</f>
         <v>0.88695043122199402</v>
       </c>
-      <c r="D4" s="20">
-        <f>'[4]Sheet 1'!C6</f>
+      <c r="D4" s="14">
+        <f>'[3]Sheet 1'!C6</f>
         <v>1.0265995044946501</v>
       </c>
-      <c r="E4" s="20">
-        <f>'[4]Sheet 1'!D6</f>
+      <c r="E4" s="14">
+        <f>'[3]Sheet 1'!D6</f>
         <v>13792</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="2"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -3513,26 +3493,26 @@
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="19">
-        <f>'[5]Sheet 1'!A6</f>
+      <c r="B5" s="13">
+        <f>'[4]Sheet 1'!A6</f>
         <v>0.95265678219671002</v>
       </c>
-      <c r="C5" s="19">
-        <f>'[5]Sheet 1'!B6</f>
+      <c r="C5" s="13">
+        <f>'[4]Sheet 1'!B6</f>
         <v>0.85908842563927201</v>
       </c>
-      <c r="D5" s="19">
-        <f>'[5]Sheet 1'!C6</f>
+      <c r="D5" s="13">
+        <f>'[4]Sheet 1'!C6</f>
         <v>1.05648462697794</v>
       </c>
-      <c r="E5" s="19">
-        <f>'[5]Sheet 1'!D6</f>
+      <c r="E5" s="13">
+        <f>'[4]Sheet 1'!D6</f>
         <v>7347</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="2"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -3551,26 +3531,26 @@
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="19">
-        <f>'[6]Sheet 1'!A6</f>
+      <c r="B6" s="13">
+        <f>'[5]Sheet 1'!A6</f>
         <v>1.1293215927421001</v>
       </c>
-      <c r="C6" s="19">
-        <f>'[6]Sheet 1'!B6</f>
+      <c r="C6" s="13">
+        <f>'[5]Sheet 1'!B6</f>
         <v>0.85652400589221001</v>
       </c>
-      <c r="D6" s="19">
-        <f>'[6]Sheet 1'!C6</f>
+      <c r="D6" s="13">
+        <f>'[5]Sheet 1'!C6</f>
         <v>1.4934110790152899</v>
       </c>
-      <c r="E6" s="19">
-        <f>'[6]Sheet 1'!D6</f>
+      <c r="E6" s="13">
+        <f>'[5]Sheet 1'!D6</f>
         <v>2122</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1"/>
       <c r="I6" s="3"/>
@@ -3589,566 +3569,566 @@
       <c r="V6" s="3"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="13">
+        <f>'[6]Sheet 1'!A6</f>
+        <v>0.93193549267069598</v>
+      </c>
+      <c r="C7" s="13">
+        <f>'[6]Sheet 1'!B6</f>
+        <v>0.85936521579605396</v>
+      </c>
+      <c r="D7" s="13">
+        <f>'[6]Sheet 1'!C6</f>
+        <v>1.0104998259659199</v>
+      </c>
+      <c r="E7" s="13">
+        <f>'[6]Sheet 1'!D6</f>
+        <v>40102</v>
+      </c>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="13">
+        <f>'[7]Sheet 1'!A6</f>
+        <v>0.88308476061319896</v>
+      </c>
+      <c r="C8" s="13">
+        <f>'[7]Sheet 1'!B6</f>
+        <v>0.71062509196656498</v>
+      </c>
+      <c r="D8" s="13">
+        <f>'[7]Sheet 1'!C6</f>
+        <v>1.0960622563182201</v>
+      </c>
+      <c r="E8" s="13">
+        <f>'[7]Sheet 1'!D6</f>
+        <v>16841</v>
+      </c>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="13">
+        <f>'[8]Sheet 1'!A6</f>
+        <v>0.88552674442889401</v>
+      </c>
+      <c r="C9" s="13">
+        <f>'[8]Sheet 1'!B6</f>
+        <v>0.77253200067789995</v>
+      </c>
+      <c r="D9" s="13">
+        <f>'[8]Sheet 1'!C6</f>
+        <v>1.01458546649028</v>
+      </c>
+      <c r="E9" s="13">
+        <f>'[8]Sheet 1'!D6</f>
+        <v>13792</v>
+      </c>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="13">
+        <f>'[9]Sheet 1'!A6</f>
+        <v>1.0647412973936199</v>
+      </c>
+      <c r="C10" s="13">
+        <f>'[9]Sheet 1'!B6</f>
+        <v>0.92763637837422896</v>
+      </c>
+      <c r="D10" s="13">
+        <f>'[9]Sheet 1'!C6</f>
+        <v>1.2217973373679201</v>
+      </c>
+      <c r="E10" s="13">
+        <f>'[9]Sheet 1'!D6</f>
+        <v>7347</v>
+      </c>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="13">
         <f>'[10]Sheet 1'!A6</f>
-        <v>0.93193549267069598</v>
-      </c>
-      <c r="C7" s="19">
+        <v>0.83110130983091701</v>
+      </c>
+      <c r="C11" s="13">
         <f>'[10]Sheet 1'!B6</f>
-        <v>0.85936521579605396</v>
-      </c>
-      <c r="D7" s="19">
+        <v>0.67904617093298902</v>
+      </c>
+      <c r="D11" s="13">
         <f>'[10]Sheet 1'!C6</f>
-        <v>1.0104998259659199</v>
-      </c>
-      <c r="E7" s="19">
+        <v>1.0162472055081699</v>
+      </c>
+      <c r="E11" s="13">
         <f>'[10]Sheet 1'!D6</f>
+        <v>2122</v>
+      </c>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="13">
+        <f>'[11]Sheet 1'!A6</f>
+        <v>1.056978714068</v>
+      </c>
+      <c r="C12" s="13">
+        <f>'[11]Sheet 1'!B6</f>
+        <v>1.01091119225205</v>
+      </c>
+      <c r="D12" s="13">
+        <f>'[11]Sheet 1'!C6</f>
+        <v>1.10515972126461</v>
+      </c>
+      <c r="E12" s="13">
+        <f>'[11]Sheet 1'!D6</f>
         <v>40102</v>
       </c>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="19">
-        <f>'[2]Sheet 1'!A6</f>
-        <v>0.88308476061319896</v>
-      </c>
-      <c r="C8" s="19">
-        <f>'[2]Sheet 1'!B6</f>
-        <v>0.71062509196656498</v>
-      </c>
-      <c r="D8" s="19">
-        <f>'[2]Sheet 1'!C6</f>
-        <v>1.0960622563182201</v>
-      </c>
-      <c r="E8" s="19">
-        <f>'[2]Sheet 1'!D6</f>
+      <c r="B13" s="13">
+        <f>'[12]Sheet 1'!A6</f>
+        <v>1.08982030829742</v>
+      </c>
+      <c r="C13" s="13">
+        <f>'[12]Sheet 1'!B6</f>
+        <v>1.0142871813675201</v>
+      </c>
+      <c r="D13" s="13">
+        <f>'[12]Sheet 1'!C6</f>
+        <v>1.17102060632714</v>
+      </c>
+      <c r="E13" s="13">
+        <f>'[12]Sheet 1'!D6</f>
         <v>16841</v>
       </c>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="19">
-        <f>'[3]Sheet 1'!A6</f>
-        <v>0.88552674442889401</v>
-      </c>
-      <c r="C9" s="19">
-        <f>'[3]Sheet 1'!B6</f>
-        <v>0.77253200067789995</v>
-      </c>
-      <c r="D9" s="19">
-        <f>'[3]Sheet 1'!C6</f>
-        <v>1.01458546649028</v>
-      </c>
-      <c r="E9" s="19">
-        <f>'[3]Sheet 1'!D6</f>
+      <c r="B14" s="13">
+        <f>'[13]Sheet 1'!A6</f>
+        <v>1.0383892287321499</v>
+      </c>
+      <c r="C14" s="13">
+        <f>'[13]Sheet 1'!B6</f>
+        <v>0.96851286786333501</v>
+      </c>
+      <c r="D14" s="13">
+        <f>'[13]Sheet 1'!C6</f>
+        <v>1.11330937310711</v>
+      </c>
+      <c r="E14" s="13">
+        <f>'[13]Sheet 1'!D6</f>
         <v>13792</v>
       </c>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="19">
-        <f>'[8]Sheet 1'!A6</f>
-        <v>1.0647412973936199</v>
-      </c>
-      <c r="C10" s="19">
-        <f>'[8]Sheet 1'!B6</f>
-        <v>0.92763637837422896</v>
-      </c>
-      <c r="D10" s="19">
-        <f>'[8]Sheet 1'!C6</f>
-        <v>1.2217973373679201</v>
-      </c>
-      <c r="E10" s="19">
-        <f>'[8]Sheet 1'!D6</f>
+      <c r="B15" s="13">
+        <f>'[14]Sheet 1'!A6</f>
+        <v>1.02802218471576</v>
+      </c>
+      <c r="C15" s="13">
+        <f>'[14]Sheet 1'!B6</f>
+        <v>0.92687193657711198</v>
+      </c>
+      <c r="D15" s="13">
+        <f>'[14]Sheet 1'!C6</f>
+        <v>1.1403902074035299</v>
+      </c>
+      <c r="E15" s="13">
+        <f>'[14]Sheet 1'!D6</f>
         <v>7347</v>
       </c>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="19">
-        <f>'[9]Sheet 1'!A6</f>
-        <v>0.83110130983091701</v>
-      </c>
-      <c r="C11" s="19">
-        <f>'[9]Sheet 1'!B6</f>
-        <v>0.67904617093298902</v>
-      </c>
-      <c r="D11" s="19">
-        <f>'[9]Sheet 1'!C6</f>
-        <v>1.0162472055081699</v>
-      </c>
-      <c r="E11" s="19">
-        <f>'[9]Sheet 1'!D6</f>
-        <v>2122</v>
-      </c>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="19">
-        <f>'[14]Sheet 1'!A6</f>
-        <v>1.056978714068</v>
-      </c>
-      <c r="C12" s="19">
-        <f>'[14]Sheet 1'!B6</f>
-        <v>1.01091119225205</v>
-      </c>
-      <c r="D12" s="19">
-        <f>'[14]Sheet 1'!C6</f>
-        <v>1.10515972126461</v>
-      </c>
-      <c r="E12" s="19">
-        <f>'[14]Sheet 1'!D6</f>
-        <v>40102</v>
-      </c>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="19">
-        <f>'[11]Sheet 1'!A6</f>
-        <v>1.08982030829742</v>
-      </c>
-      <c r="C13" s="19">
-        <f>'[11]Sheet 1'!B6</f>
-        <v>1.0142871813675201</v>
-      </c>
-      <c r="D13" s="19">
-        <f>'[11]Sheet 1'!C6</f>
-        <v>1.17102060632714</v>
-      </c>
-      <c r="E13" s="19">
-        <f>'[11]Sheet 1'!D6</f>
-        <v>16841</v>
-      </c>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="19">
-        <f>'[12]Sheet 1'!A6</f>
-        <v>1.0383892287321499</v>
-      </c>
-      <c r="C14" s="19">
-        <f>'[12]Sheet 1'!B6</f>
-        <v>0.96851286786333501</v>
-      </c>
-      <c r="D14" s="19">
-        <f>'[12]Sheet 1'!C6</f>
-        <v>1.11330937310711</v>
-      </c>
-      <c r="E14" s="19">
-        <f>'[12]Sheet 1'!D6</f>
-        <v>13792</v>
-      </c>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="19">
-        <f>'[13]Sheet 1'!A6</f>
-        <v>1.02802218471576</v>
-      </c>
-      <c r="C15" s="19">
-        <f>'[13]Sheet 1'!B6</f>
-        <v>0.92687193657711198</v>
-      </c>
-      <c r="D15" s="19">
-        <f>'[13]Sheet 1'!C6</f>
-        <v>1.1403902074035299</v>
-      </c>
-      <c r="E15" s="19">
-        <f>'[13]Sheet 1'!D6</f>
-        <v>7347</v>
-      </c>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="19">
+      <c r="B16" s="13">
         <f>'[15]Sheet 1'!A6</f>
         <v>1.1345998180426899</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="13">
         <f>'[15]Sheet 1'!B6</f>
         <v>0.80905087909918305</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="13">
         <f>'[15]Sheet 1'!C6</f>
         <v>1.60024382121403</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="13">
         <f>'[15]Sheet 1'!D6</f>
         <v>2122</v>
       </c>
-      <c r="F16" s="19"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="19" t="s">
-        <v>25</v>
+      <c r="A17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="13">
         <f>'[16]Sheet 1'!A6</f>
         <v>1.0040123608078699</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="13">
         <f>'[16]Sheet 1'!B6</f>
         <v>0.83324643546294896</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="13">
         <f>'[16]Sheet 1'!C6</f>
         <v>1.2094203475935099</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="13">
         <f>'[16]Sheet 1'!D6</f>
         <v>2560</v>
       </c>
-      <c r="F18" s="19"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="16">
+        <f>'[17]Sheet 1'!A6</f>
+        <v>1.06092208719532</v>
+      </c>
+      <c r="C19" s="17">
+        <f>'[17]Sheet 1'!B6</f>
+        <v>0.77207167612870098</v>
+      </c>
+      <c r="D19" s="17">
+        <f>'[17]Sheet 1'!C6</f>
+        <v>1.45552894029619</v>
+      </c>
+      <c r="E19" s="13">
+        <f>'[17]Sheet 1'!D6</f>
+        <v>1022</v>
+      </c>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="13">
+        <f>'[18]Sheet 1'!A6</f>
+        <v>0.95862653983429102</v>
+      </c>
+      <c r="C20" s="13">
+        <f>'[18]Sheet 1'!B6</f>
+        <v>0.70541906750614503</v>
+      </c>
+      <c r="D20" s="13">
+        <f>'[18]Sheet 1'!C6</f>
+        <v>1.3011767291770899</v>
+      </c>
+      <c r="E20" s="13">
+        <f>'[18]Sheet 1'!D6</f>
+        <v>903</v>
+      </c>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="13">
+        <f>'[19]Sheet 1'!A6</f>
+        <v>0.99450368404593203</v>
+      </c>
+      <c r="C21" s="13">
+        <f>'[19]Sheet 1'!B6</f>
+        <v>0.64709206556564303</v>
+      </c>
+      <c r="D21" s="13">
+        <f>'[19]Sheet 1'!C6</f>
+        <v>1.5289087365090299</v>
+      </c>
+      <c r="E21" s="13">
+        <f>'[19]Sheet 1'!D6</f>
+        <v>470</v>
+      </c>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="13">
         <f>'[20]Sheet 1'!A6</f>
-        <v>1.06092208719532</v>
-      </c>
-      <c r="C19" s="23">
+        <v>0.79114305649726302</v>
+      </c>
+      <c r="C22" s="13">
         <f>'[20]Sheet 1'!B6</f>
-        <v>0.77207167612870098</v>
-      </c>
-      <c r="D19" s="23">
+        <v>0.31897015761608299</v>
+      </c>
+      <c r="D22" s="13">
         <f>'[20]Sheet 1'!C6</f>
-        <v>1.45552894029619</v>
-      </c>
-      <c r="E19" s="19">
+        <v>1.9639939315811901</v>
+      </c>
+      <c r="E22" s="13">
         <f>'[20]Sheet 1'!D6</f>
-        <v>1022</v>
-      </c>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="19">
-        <f>'[19]Sheet 1'!A6</f>
-        <v>0.95862653983429102</v>
-      </c>
-      <c r="C20" s="19">
-        <f>'[19]Sheet 1'!B6</f>
-        <v>0.70541906750614503</v>
-      </c>
-      <c r="D20" s="19">
-        <f>'[19]Sheet 1'!C6</f>
-        <v>1.3011767291770899</v>
-      </c>
-      <c r="E20" s="19">
-        <f>'[19]Sheet 1'!D6</f>
-        <v>903</v>
-      </c>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="19">
-        <f>'[18]Sheet 1'!A6</f>
-        <v>0.99450368404593203</v>
-      </c>
-      <c r="C21" s="19">
-        <f>'[18]Sheet 1'!B6</f>
-        <v>0.64709206556564303</v>
-      </c>
-      <c r="D21" s="19">
-        <f>'[18]Sheet 1'!C6</f>
-        <v>1.5289087365090299</v>
-      </c>
-      <c r="E21" s="19">
-        <f>'[18]Sheet 1'!D6</f>
-        <v>470</v>
-      </c>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="19">
-        <f>'[17]Sheet 1'!A6</f>
-        <v>0.79114305649726302</v>
-      </c>
-      <c r="C22" s="19">
-        <f>'[17]Sheet 1'!B6</f>
-        <v>0.31897015761608299</v>
-      </c>
-      <c r="D22" s="19">
-        <f>'[17]Sheet 1'!C6</f>
-        <v>1.9639939315811901</v>
-      </c>
-      <c r="E22" s="19">
-        <f>'[17]Sheet 1'!D6</f>
         <v>165</v>
       </c>
-      <c r="F22" s="19"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="13">
         <f>'[21]Sheet 1'!A6</f>
         <v>0.72944873407565902</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="13">
         <f>'[21]Sheet 1'!B6</f>
         <v>0.50076540917875501</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="13">
         <f>'[21]Sheet 1'!C6</f>
         <v>1.0533596355817001</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="13">
         <f>'[21]Sheet 1'!D6</f>
         <v>2560</v>
       </c>
-      <c r="F23" s="19"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="13">
+        <f>'[22]Sheet 1'!A6</f>
+        <v>0.87050206588849399</v>
+      </c>
+      <c r="C24" s="13">
+        <f>'[22]Sheet 1'!B6</f>
+        <v>0.304238395630194</v>
+      </c>
+      <c r="D24" s="13">
+        <f>'[22]Sheet 1'!C6</f>
+        <v>2.34623045745737</v>
+      </c>
+      <c r="E24" s="13">
+        <f>'[22]Sheet 1'!D6</f>
+        <v>1022</v>
+      </c>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="13">
+        <f>'[23]Sheet 1'!A6</f>
+        <v>0.57810803377062103</v>
+      </c>
+      <c r="C25" s="13">
+        <f>'[23]Sheet 1'!B6</f>
+        <v>0.29609952268581202</v>
+      </c>
+      <c r="D25" s="13">
+        <f>'[23]Sheet 1'!C6</f>
+        <v>1.0935780620214799</v>
+      </c>
+      <c r="E25" s="13">
+        <f>'[23]Sheet 1'!D6</f>
+        <v>903</v>
+      </c>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="13">
+        <f>'[24]Sheet 1'!A6</f>
+        <v>0.86079956933905299</v>
+      </c>
+      <c r="C26" s="13">
+        <f>'[24]Sheet 1'!B6</f>
+        <v>0.43602250400282</v>
+      </c>
+      <c r="D26" s="13">
+        <f>'[24]Sheet 1'!C6</f>
+        <v>1.6605648130099799</v>
+      </c>
+      <c r="E26" s="13">
+        <f>'[24]Sheet 1'!D6</f>
+        <v>470</v>
+      </c>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="13">
         <f>'[25]Sheet 1'!A6</f>
-        <v>0.87050206588849399</v>
-      </c>
-      <c r="C24" s="19">
+        <v>0.68139291865569696</v>
+      </c>
+      <c r="C27" s="13">
         <f>'[25]Sheet 1'!B6</f>
-        <v>0.304238395630194</v>
-      </c>
-      <c r="D24" s="19">
+        <v>0.26444140300352198</v>
+      </c>
+      <c r="D27" s="13">
         <f>'[25]Sheet 1'!C6</f>
-        <v>2.34623045745737</v>
-      </c>
-      <c r="E24" s="19">
+        <v>1.6951350936468901</v>
+      </c>
+      <c r="E27" s="13">
         <f>'[25]Sheet 1'!D6</f>
-        <v>1022</v>
-      </c>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="19">
-        <f>'[24]Sheet 1'!A6</f>
-        <v>0.57810803377062103</v>
-      </c>
-      <c r="C25" s="19">
-        <f>'[24]Sheet 1'!B6</f>
-        <v>0.29609952268581202</v>
-      </c>
-      <c r="D25" s="19">
-        <f>'[24]Sheet 1'!C6</f>
-        <v>1.0935780620214799</v>
-      </c>
-      <c r="E25" s="19">
-        <f>'[24]Sheet 1'!D6</f>
-        <v>903</v>
-      </c>
-      <c r="F25" s="19"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="19">
-        <f>'[23]Sheet 1'!A6</f>
-        <v>0.86079956933905299</v>
-      </c>
-      <c r="C26" s="19">
-        <f>'[23]Sheet 1'!B6</f>
-        <v>0.43602250400282</v>
-      </c>
-      <c r="D26" s="19">
-        <f>'[23]Sheet 1'!C6</f>
-        <v>1.6605648130099799</v>
-      </c>
-      <c r="E26" s="19">
-        <f>'[23]Sheet 1'!D6</f>
-        <v>470</v>
-      </c>
-      <c r="F26" s="19"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="19">
-        <f>'[22]Sheet 1'!A6</f>
-        <v>0.68139291865569696</v>
-      </c>
-      <c r="C27" s="19">
-        <f>'[22]Sheet 1'!B6</f>
-        <v>0.26444140300352198</v>
-      </c>
-      <c r="D27" s="19">
-        <f>'[22]Sheet 1'!C6</f>
-        <v>1.6951350936468901</v>
-      </c>
-      <c r="E27" s="19">
-        <f>'[22]Sheet 1'!D6</f>
         <v>165</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="13">
         <f>'[26]Sheet 1'!A6</f>
         <v>1.0229597638647501</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="13">
         <f>'[26]Sheet 1'!B6</f>
         <v>0.85745205432802596</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="13">
         <f>'[26]Sheet 1'!C6</f>
         <v>1.22043394220181</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="13">
         <f>'[26]Sheet 1'!D6</f>
         <v>2560</v>
       </c>
-      <c r="F28" s="19"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="13">
+        <f>'[27]Sheet 1'!A6</f>
+        <v>1.06061217354616</v>
+      </c>
+      <c r="C29" s="13">
+        <f>'[27]Sheet 1'!B6</f>
+        <v>0.79796091917385603</v>
+      </c>
+      <c r="D29" s="13">
+        <f>'[27]Sheet 1'!C6</f>
+        <v>1.4086536543002901</v>
+      </c>
+      <c r="E29" s="13">
+        <f>'[27]Sheet 1'!D6</f>
+        <v>1022</v>
+      </c>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="13">
+        <f>'[28]Sheet 1'!A6</f>
+        <v>0.93498127665267405</v>
+      </c>
+      <c r="C30" s="13">
+        <f>'[28]Sheet 1'!B6</f>
+        <v>0.70737263088647895</v>
+      </c>
+      <c r="D30" s="13">
+        <f>'[28]Sheet 1'!C6</f>
+        <v>1.23508183723261</v>
+      </c>
+      <c r="E30" s="13">
+        <f>'[28]Sheet 1'!D6</f>
+        <v>903</v>
+      </c>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="13">
+        <f>'[29]Sheet 1'!A6</f>
+        <v>0.87754119968020405</v>
+      </c>
+      <c r="C31" s="13">
+        <f>'[29]Sheet 1'!B6</f>
+        <v>0.57097230265883103</v>
+      </c>
+      <c r="D31" s="13">
+        <f>'[29]Sheet 1'!C6</f>
+        <v>1.3505442235963601</v>
+      </c>
+      <c r="E31" s="13">
+        <f>'[29]Sheet 1'!D6</f>
+        <v>470</v>
+      </c>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="13">
         <f>'[30]Sheet 1'!A6</f>
-        <v>1.06061217354616</v>
-      </c>
-      <c r="C29" s="19">
+        <v>5.6671012487993</v>
+      </c>
+      <c r="C32" s="13">
         <f>'[30]Sheet 1'!B6</f>
-        <v>0.79796091917385603</v>
-      </c>
-      <c r="D29" s="19">
+        <v>1.0567180620207799</v>
+      </c>
+      <c r="D32" s="13">
         <f>'[30]Sheet 1'!C6</f>
-        <v>1.4086536543002901</v>
-      </c>
-      <c r="E29" s="19">
+        <v>55.550432560135</v>
+      </c>
+      <c r="E32" s="13">
         <f>'[30]Sheet 1'!D6</f>
-        <v>1022</v>
-      </c>
-      <c r="F29" s="19"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="19">
-        <f>'[29]Sheet 1'!A6</f>
-        <v>0.93498127665267405</v>
-      </c>
-      <c r="C30" s="19">
-        <f>'[29]Sheet 1'!B6</f>
-        <v>0.70737263088647895</v>
-      </c>
-      <c r="D30" s="19">
-        <f>'[29]Sheet 1'!C6</f>
-        <v>1.23508183723261</v>
-      </c>
-      <c r="E30" s="19">
-        <f>'[29]Sheet 1'!D6</f>
-        <v>903</v>
-      </c>
-      <c r="F30" s="19"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="19">
-        <f>'[28]Sheet 1'!A6</f>
-        <v>0.87754119968020405</v>
-      </c>
-      <c r="C31" s="19">
-        <f>'[28]Sheet 1'!B6</f>
-        <v>0.57097230265883103</v>
-      </c>
-      <c r="D31" s="19">
-        <f>'[28]Sheet 1'!C6</f>
-        <v>1.3505442235963601</v>
-      </c>
-      <c r="E31" s="19">
-        <f>'[28]Sheet 1'!D6</f>
-        <v>470</v>
-      </c>
-      <c r="F31" s="19"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="19">
-        <f>'[27]Sheet 1'!A6</f>
-        <v>5.6671012487993</v>
-      </c>
-      <c r="C32" s="19">
-        <f>'[27]Sheet 1'!B6</f>
-        <v>1.0567180620207799</v>
-      </c>
-      <c r="D32" s="19">
-        <f>'[27]Sheet 1'!C6</f>
-        <v>55.550432560135</v>
-      </c>
-      <c r="E32" s="19">
-        <f>'[27]Sheet 1'!D6</f>
         <v>165</v>
       </c>
-      <c r="F32" s="19"/>
+      <c r="F32" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4165,7 +4145,7 @@
   <dimension ref="B2:H9"/>
   <sheetViews>
     <sheetView zoomScale="196" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4182,17 +4162,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="2:8" ht="19.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
@@ -4218,7 +4198,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="19.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -4246,9 +4226,9 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="19.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="15"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="9" t="str">
         <f>_xlfn.CONCAT(ROUND(data_sex!B18, 2), " (", ROUND(data_sex!C18,2), " - ", ROUND(data_sex!D18,2),  ")")</f>
@@ -4272,7 +4252,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="19.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -4300,9 +4280,9 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="19.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="15"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="9" t="str">
         <f>_xlfn.CONCAT(ROUND(data_sex!B23, 2), " (", ROUND(data_sex!C23,2), " - ", ROUND(data_sex!D23,2),  ")")</f>
@@ -4326,7 +4306,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="19.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -4354,9 +4334,9 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="19.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="15"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="9" t="str">
         <f>_xlfn.CONCAT(ROUND(data_sex!B28, 2), " (", ROUND(data_sex!C28,2), " - ", ROUND(data_sex!D28,2),  ")")</f>
@@ -4408,61 +4388,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="19">
-        <f>'[7]Sheet 1'!A16</f>
+      <c r="B2" s="13">
+        <f>'[1]Sheet 1'!A16</f>
         <v>0.93991173507818004</v>
       </c>
-      <c r="C2" s="19">
-        <f>'[7]Sheet 1'!B16</f>
+      <c r="C2" s="13">
+        <f>'[1]Sheet 1'!B16</f>
         <v>0.60343820512443003</v>
       </c>
-      <c r="D2" s="19">
-        <f>'[7]Sheet 1'!C16</f>
+      <c r="D2" s="13">
+        <f>'[1]Sheet 1'!C16</f>
         <v>1.46318284775917</v>
       </c>
-      <c r="E2" s="19">
-        <f>'[7]Sheet 1'!D16</f>
+      <c r="E2" s="13">
+        <f>'[1]Sheet 1'!D16</f>
         <v>40102</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="13" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="2"/>
@@ -4478,26 +4458,26 @@
       <c r="V2" s="2"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="19">
-        <f>'[1]Sheet 1'!A16</f>
+      <c r="B3" s="13">
+        <f>'[2]Sheet 1'!A16</f>
         <v>2.0166134519082699</v>
       </c>
-      <c r="C3" s="19">
-        <f>'[1]Sheet 1'!B16</f>
+      <c r="C3" s="13">
+        <f>'[2]Sheet 1'!B16</f>
         <v>0.992347953988857</v>
       </c>
-      <c r="D3" s="19">
-        <f>'[1]Sheet 1'!C16</f>
+      <c r="D3" s="13">
+        <f>'[2]Sheet 1'!C16</f>
         <v>4.0836932596019304</v>
       </c>
-      <c r="E3" s="19">
-        <f>'[1]Sheet 1'!D16</f>
+      <c r="E3" s="13">
+        <f>'[2]Sheet 1'!D16</f>
         <v>16841</v>
       </c>
-      <c r="F3" s="19"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -4516,26 +4496,26 @@
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="20">
-        <f>'[4]Sheet 1'!A16</f>
+      <c r="B4" s="14">
+        <f>'[3]Sheet 1'!A16</f>
         <v>0.65450939691419396</v>
       </c>
-      <c r="C4" s="20">
-        <f>'[4]Sheet 1'!B16</f>
+      <c r="C4" s="14">
+        <f>'[3]Sheet 1'!B16</f>
         <v>0.32556579607964098</v>
       </c>
-      <c r="D4" s="20">
-        <f>'[4]Sheet 1'!C16</f>
+      <c r="D4" s="14">
+        <f>'[3]Sheet 1'!C16</f>
         <v>1.3116538231630399</v>
       </c>
-      <c r="E4" s="20">
-        <f>'[4]Sheet 1'!D16</f>
+      <c r="E4" s="14">
+        <f>'[3]Sheet 1'!D16</f>
         <v>13792</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="2"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -4554,26 +4534,26 @@
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="19">
-        <f>'[5]Sheet 1'!A16</f>
+      <c r="B5" s="13">
+        <f>'[4]Sheet 1'!A16</f>
         <v>0.55679690585979003</v>
       </c>
-      <c r="C5" s="19">
-        <f>'[5]Sheet 1'!B16</f>
+      <c r="C5" s="13">
+        <f>'[4]Sheet 1'!B16</f>
         <v>0.21925472941622301</v>
       </c>
-      <c r="D5" s="19">
-        <f>'[5]Sheet 1'!C16</f>
+      <c r="D5" s="13">
+        <f>'[4]Sheet 1'!C16</f>
         <v>1.4083794709883899</v>
       </c>
-      <c r="E5" s="19">
-        <f>'[5]Sheet 1'!D16</f>
+      <c r="E5" s="13">
+        <f>'[4]Sheet 1'!D16</f>
         <v>7347</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="2"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -4592,26 +4572,26 @@
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="19">
-        <f>'[6]Sheet 1'!A16</f>
+      <c r="B6" s="13">
+        <f>'[5]Sheet 1'!A16</f>
         <v>0.81414201003077502</v>
       </c>
-      <c r="C6" s="19">
-        <f>'[6]Sheet 1'!B16</f>
+      <c r="C6" s="13">
+        <f>'[5]Sheet 1'!B16</f>
         <v>0.132203391362199</v>
       </c>
-      <c r="D6" s="19">
-        <f>'[6]Sheet 1'!C16</f>
+      <c r="D6" s="13">
+        <f>'[5]Sheet 1'!C16</f>
         <v>4.9080512541362804</v>
       </c>
-      <c r="E6" s="19">
-        <f>'[6]Sheet 1'!D16</f>
+      <c r="E6" s="13">
+        <f>'[5]Sheet 1'!D16</f>
         <v>2122</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1"/>
       <c r="I6" s="3"/>
@@ -4630,566 +4610,566 @@
       <c r="V6" s="3"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="13">
+        <f>'[6]Sheet 1'!A16</f>
+        <v>0.78817570510651702</v>
+      </c>
+      <c r="C7" s="13">
+        <f>'[6]Sheet 1'!B16</f>
+        <v>0.32750340381487902</v>
+      </c>
+      <c r="D7" s="13">
+        <f>'[6]Sheet 1'!C16</f>
+        <v>1.9264638925959601</v>
+      </c>
+      <c r="E7" s="13">
+        <f>'[6]Sheet 1'!D16</f>
+        <v>40102</v>
+      </c>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="13">
+        <f>'[7]Sheet 1'!A16</f>
+        <v>0.36922410696255098</v>
+      </c>
+      <c r="C8" s="13">
+        <f>'[7]Sheet 1'!B16</f>
+        <v>3.7406044381355003E-2</v>
+      </c>
+      <c r="D8" s="13">
+        <f>'[7]Sheet 1'!C16</f>
+        <v>3.6016823769201398</v>
+      </c>
+      <c r="E8" s="13">
+        <f>'[7]Sheet 1'!D16</f>
+        <v>16841</v>
+      </c>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="13">
+        <f>'[8]Sheet 1'!A16</f>
+        <v>1.7734385160706101</v>
+      </c>
+      <c r="C9" s="13">
+        <f>'[8]Sheet 1'!B16</f>
+        <v>0.39150621299434601</v>
+      </c>
+      <c r="D9" s="13">
+        <f>'[8]Sheet 1'!C16</f>
+        <v>9.7493773192728597</v>
+      </c>
+      <c r="E9" s="13">
+        <f>'[8]Sheet 1'!D16</f>
+        <v>13792</v>
+      </c>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="13">
+        <f>'[9]Sheet 1'!A16</f>
+        <v>1.1466078133067299</v>
+      </c>
+      <c r="C10" s="13">
+        <f>'[9]Sheet 1'!B16</f>
+        <v>0.25271899012037902</v>
+      </c>
+      <c r="D10" s="13">
+        <f>'[9]Sheet 1'!C16</f>
+        <v>5.74514358080721</v>
+      </c>
+      <c r="E10" s="13">
+        <f>'[9]Sheet 1'!D16</f>
+        <v>7347</v>
+      </c>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="13">
         <f>'[10]Sheet 1'!A16</f>
-        <v>0.78817570510651702</v>
-      </c>
-      <c r="C7" s="19">
+        <v>0.222663902707773</v>
+      </c>
+      <c r="C11" s="13">
         <f>'[10]Sheet 1'!B16</f>
-        <v>0.32750340381487902</v>
-      </c>
-      <c r="D7" s="19">
+        <v>3.0356537030997301E-2</v>
+      </c>
+      <c r="D11" s="13">
         <f>'[10]Sheet 1'!C16</f>
-        <v>1.9264638925959601</v>
-      </c>
-      <c r="E7" s="19">
+        <v>1.57268221864028</v>
+      </c>
+      <c r="E11" s="13">
         <f>'[10]Sheet 1'!D16</f>
+        <v>2122</v>
+      </c>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="13">
+        <f>'[11]Sheet 1'!A16</f>
+        <v>1.08845580549109</v>
+      </c>
+      <c r="C12" s="13">
+        <f>'[11]Sheet 1'!B16</f>
+        <v>0.73911535441144105</v>
+      </c>
+      <c r="D12" s="13">
+        <f>'[11]Sheet 1'!C16</f>
+        <v>1.60117505851082</v>
+      </c>
+      <c r="E12" s="13">
+        <f>'[11]Sheet 1'!D16</f>
         <v>40102</v>
       </c>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="19">
-        <f>'[2]Sheet 1'!A16</f>
-        <v>0.36922410696255098</v>
-      </c>
-      <c r="C8" s="19">
-        <f>'[2]Sheet 1'!B16</f>
-        <v>3.7406044381355003E-2</v>
-      </c>
-      <c r="D8" s="19">
-        <f>'[2]Sheet 1'!C16</f>
-        <v>3.6016823769201398</v>
-      </c>
-      <c r="E8" s="19">
-        <f>'[2]Sheet 1'!D16</f>
+      <c r="B13" s="13">
+        <f>'[12]Sheet 1'!A16</f>
+        <v>0.82760198910809202</v>
+      </c>
+      <c r="C13" s="13">
+        <f>'[12]Sheet 1'!B16</f>
+        <v>0.428935172860963</v>
+      </c>
+      <c r="D13" s="13">
+        <f>'[12]Sheet 1'!C16</f>
+        <v>1.5688718105552899</v>
+      </c>
+      <c r="E13" s="13">
+        <f>'[12]Sheet 1'!D16</f>
         <v>16841</v>
       </c>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="19">
-        <f>'[3]Sheet 1'!A16</f>
-        <v>1.7734385160706101</v>
-      </c>
-      <c r="C9" s="19">
-        <f>'[3]Sheet 1'!B16</f>
-        <v>0.39150621299434601</v>
-      </c>
-      <c r="D9" s="19">
-        <f>'[3]Sheet 1'!C16</f>
-        <v>9.7493773192728597</v>
-      </c>
-      <c r="E9" s="19">
-        <f>'[3]Sheet 1'!D16</f>
+      <c r="B14" s="13">
+        <f>'[13]Sheet 1'!A16</f>
+        <v>1.6360386849423401</v>
+      </c>
+      <c r="C14" s="13">
+        <f>'[13]Sheet 1'!B16</f>
+        <v>0.91414333839935102</v>
+      </c>
+      <c r="D14" s="13">
+        <f>'[13]Sheet 1'!C16</f>
+        <v>2.95476080826261</v>
+      </c>
+      <c r="E14" s="13">
+        <f>'[13]Sheet 1'!D16</f>
         <v>13792</v>
       </c>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="19">
-        <f>'[8]Sheet 1'!A16</f>
-        <v>1.1466078133067299</v>
-      </c>
-      <c r="C10" s="19">
-        <f>'[8]Sheet 1'!B16</f>
-        <v>0.25271899012037902</v>
-      </c>
-      <c r="D10" s="19">
-        <f>'[8]Sheet 1'!C16</f>
-        <v>5.74514358080721</v>
-      </c>
-      <c r="E10" s="19">
-        <f>'[8]Sheet 1'!D16</f>
+      <c r="B15" s="13">
+        <f>'[14]Sheet 1'!A16</f>
+        <v>0.73943449209230405</v>
+      </c>
+      <c r="C15" s="13">
+        <f>'[14]Sheet 1'!B16</f>
+        <v>0.280881411840328</v>
+      </c>
+      <c r="D15" s="13">
+        <f>'[14]Sheet 1'!C16</f>
+        <v>1.9274761415252999</v>
+      </c>
+      <c r="E15" s="13">
+        <f>'[14]Sheet 1'!D16</f>
         <v>7347</v>
       </c>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="19">
-        <f>'[9]Sheet 1'!A16</f>
-        <v>0.222663902707773</v>
-      </c>
-      <c r="C11" s="19">
-        <f>'[9]Sheet 1'!B16</f>
-        <v>3.0356537030997301E-2</v>
-      </c>
-      <c r="D11" s="19">
-        <f>'[9]Sheet 1'!C16</f>
-        <v>1.57268221864028</v>
-      </c>
-      <c r="E11" s="19">
-        <f>'[9]Sheet 1'!D16</f>
-        <v>2122</v>
-      </c>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="19">
-        <f>'[14]Sheet 1'!A16</f>
-        <v>1.08845580549109</v>
-      </c>
-      <c r="C12" s="19">
-        <f>'[14]Sheet 1'!B16</f>
-        <v>0.73911535441144105</v>
-      </c>
-      <c r="D12" s="19">
-        <f>'[14]Sheet 1'!C16</f>
-        <v>1.60117505851082</v>
-      </c>
-      <c r="E12" s="19">
-        <f>'[14]Sheet 1'!D16</f>
-        <v>40102</v>
-      </c>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="19">
-        <f>'[11]Sheet 1'!A16</f>
-        <v>0.82760198910809202</v>
-      </c>
-      <c r="C13" s="19">
-        <f>'[11]Sheet 1'!B16</f>
-        <v>0.428935172860963</v>
-      </c>
-      <c r="D13" s="19">
-        <f>'[11]Sheet 1'!C16</f>
-        <v>1.5688718105552899</v>
-      </c>
-      <c r="E13" s="19">
-        <f>'[11]Sheet 1'!D16</f>
-        <v>16841</v>
-      </c>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="19">
-        <f>'[12]Sheet 1'!A16</f>
-        <v>1.6360386849423401</v>
-      </c>
-      <c r="C14" s="19">
-        <f>'[12]Sheet 1'!B16</f>
-        <v>0.91414333839935102</v>
-      </c>
-      <c r="D14" s="19">
-        <f>'[12]Sheet 1'!C16</f>
-        <v>2.95476080826261</v>
-      </c>
-      <c r="E14" s="19">
-        <f>'[12]Sheet 1'!D16</f>
-        <v>13792</v>
-      </c>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="19">
-        <f>'[13]Sheet 1'!A16</f>
-        <v>0.73943449209230405</v>
-      </c>
-      <c r="C15" s="19">
-        <f>'[13]Sheet 1'!B16</f>
-        <v>0.280881411840328</v>
-      </c>
-      <c r="D15" s="19">
-        <f>'[13]Sheet 1'!C16</f>
-        <v>1.9274761415252999</v>
-      </c>
-      <c r="E15" s="19">
-        <f>'[13]Sheet 1'!D16</f>
-        <v>7347</v>
-      </c>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="19">
+      <c r="B16" s="13">
         <f>'[15]Sheet 1'!A16</f>
         <v>0.26673967410911797</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="13">
         <f>'[15]Sheet 1'!B16</f>
         <v>8.5163480678501907E-3</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="13">
         <f>'[15]Sheet 1'!C16</f>
         <v>4.4579123519704504</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="13">
         <f>'[15]Sheet 1'!D16</f>
         <v>2122</v>
       </c>
-      <c r="F16" s="19"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="19" t="s">
-        <v>25</v>
+      <c r="A17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="13">
         <f>'[16]Sheet 1'!A16</f>
         <v>0</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="13">
         <f>'[16]Sheet 1'!B16</f>
         <v>0</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="13">
         <f>'[16]Sheet 1'!C16</f>
         <v>0</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="13">
         <f>'[16]Sheet 1'!D16</f>
         <v>2560</v>
       </c>
-      <c r="F18" s="19"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="16">
+        <f>'[17]Sheet 1'!A16</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="17">
+        <f>'[17]Sheet 1'!B16</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="17">
+        <f>'[17]Sheet 1'!C16</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="13">
+        <f>'[17]Sheet 1'!D16</f>
+        <v>1022</v>
+      </c>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="13">
+        <f>'[18]Sheet 1'!A16</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="13">
+        <f>'[18]Sheet 1'!B16</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="13">
+        <f>'[18]Sheet 1'!C16</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="13">
+        <f>'[18]Sheet 1'!D16</f>
+        <v>903</v>
+      </c>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="13">
+        <f>'[19]Sheet 1'!A16</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="13">
+        <f>'[19]Sheet 1'!B16</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="13">
+        <f>'[19]Sheet 1'!C16</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="13">
+        <f>'[19]Sheet 1'!D16</f>
+        <v>470</v>
+      </c>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="13">
         <f>'[20]Sheet 1'!A16</f>
         <v>0</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C22" s="13">
         <f>'[20]Sheet 1'!B16</f>
         <v>0</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D22" s="13">
         <f>'[20]Sheet 1'!C16</f>
         <v>0</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E22" s="13">
         <f>'[20]Sheet 1'!D16</f>
-        <v>1022</v>
-      </c>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="19">
-        <f>'[19]Sheet 1'!A16</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="19">
-        <f>'[19]Sheet 1'!B16</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="19">
-        <f>'[19]Sheet 1'!C16</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="19">
-        <f>'[19]Sheet 1'!D16</f>
-        <v>903</v>
-      </c>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="19">
-        <f>'[18]Sheet 1'!A16</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="19">
-        <f>'[18]Sheet 1'!B16</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="19">
-        <f>'[18]Sheet 1'!C16</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="19">
-        <f>'[18]Sheet 1'!D16</f>
-        <v>470</v>
-      </c>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="19">
-        <f>'[17]Sheet 1'!A16</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="19">
-        <f>'[17]Sheet 1'!B16</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="19">
-        <f>'[17]Sheet 1'!C16</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="19">
-        <f>'[17]Sheet 1'!D16</f>
         <v>165</v>
       </c>
-      <c r="F22" s="19"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="13">
         <f>'[21]Sheet 1'!A16</f>
         <v>0</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="13">
         <f>'[21]Sheet 1'!B16</f>
         <v>0</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="13">
         <f>'[21]Sheet 1'!C16</f>
         <v>0</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="13">
         <f>'[21]Sheet 1'!D16</f>
         <v>2560</v>
       </c>
-      <c r="F23" s="19"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="13">
+        <f>'[22]Sheet 1'!A16</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="13">
+        <f>'[22]Sheet 1'!B16</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="13">
+        <f>'[22]Sheet 1'!C16</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="13">
+        <f>'[22]Sheet 1'!D16</f>
+        <v>1022</v>
+      </c>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="13">
+        <f>'[23]Sheet 1'!A16</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="13">
+        <f>'[23]Sheet 1'!B16</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="13">
+        <f>'[23]Sheet 1'!C16</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="13">
+        <f>'[23]Sheet 1'!D16</f>
+        <v>903</v>
+      </c>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="13">
+        <f>'[24]Sheet 1'!A16</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="13">
+        <f>'[24]Sheet 1'!B16</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="13">
+        <f>'[24]Sheet 1'!C16</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="13">
+        <f>'[24]Sheet 1'!D16</f>
+        <v>470</v>
+      </c>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="13">
         <f>'[25]Sheet 1'!A16</f>
         <v>0</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C27" s="13">
         <f>'[25]Sheet 1'!B16</f>
         <v>0</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D27" s="13">
         <f>'[25]Sheet 1'!C16</f>
         <v>0</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E27" s="13">
         <f>'[25]Sheet 1'!D16</f>
-        <v>1022</v>
-      </c>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="19">
-        <f>'[24]Sheet 1'!A16</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="19">
-        <f>'[24]Sheet 1'!B16</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="19">
-        <f>'[24]Sheet 1'!C16</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="19">
-        <f>'[24]Sheet 1'!D16</f>
-        <v>903</v>
-      </c>
-      <c r="F25" s="19"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="19">
-        <f>'[23]Sheet 1'!A16</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="19">
-        <f>'[23]Sheet 1'!B16</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="19">
-        <f>'[23]Sheet 1'!C16</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="19">
-        <f>'[23]Sheet 1'!D16</f>
-        <v>470</v>
-      </c>
-      <c r="F26" s="19"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="19">
-        <f>'[22]Sheet 1'!A16</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="19">
-        <f>'[22]Sheet 1'!B16</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="19">
-        <f>'[22]Sheet 1'!C16</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="19">
-        <f>'[22]Sheet 1'!D16</f>
         <v>165</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="13">
         <f>'[26]Sheet 1'!A16</f>
         <v>0</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="13">
         <f>'[26]Sheet 1'!B16</f>
         <v>0</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="13">
         <f>'[26]Sheet 1'!C16</f>
         <v>0</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="13">
         <f>'[26]Sheet 1'!D16</f>
         <v>2560</v>
       </c>
-      <c r="F28" s="19"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="13">
+        <f>'[27]Sheet 1'!A16</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="13">
+        <f>'[27]Sheet 1'!B16</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="13">
+        <f>'[27]Sheet 1'!C16</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="13">
+        <f>'[27]Sheet 1'!D16</f>
+        <v>1022</v>
+      </c>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="13">
+        <f>'[28]Sheet 1'!A16</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="13">
+        <f>'[28]Sheet 1'!B16</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="13">
+        <f>'[28]Sheet 1'!C16</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="13">
+        <f>'[28]Sheet 1'!D16</f>
+        <v>903</v>
+      </c>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="13">
+        <f>'[29]Sheet 1'!A16</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="13">
+        <f>'[29]Sheet 1'!B16</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="13">
+        <f>'[29]Sheet 1'!C16</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="13">
+        <f>'[29]Sheet 1'!D16</f>
+        <v>470</v>
+      </c>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="13">
         <f>'[30]Sheet 1'!A16</f>
         <v>0</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C32" s="13">
         <f>'[30]Sheet 1'!B16</f>
         <v>0</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D32" s="13">
         <f>'[30]Sheet 1'!C16</f>
         <v>0</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E32" s="13">
         <f>'[30]Sheet 1'!D16</f>
-        <v>1022</v>
-      </c>
-      <c r="F29" s="19"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="19">
-        <f>'[29]Sheet 1'!A16</f>
-        <v>0</v>
-      </c>
-      <c r="C30" s="19">
-        <f>'[29]Sheet 1'!B16</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="19">
-        <f>'[29]Sheet 1'!C16</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="19">
-        <f>'[29]Sheet 1'!D16</f>
-        <v>903</v>
-      </c>
-      <c r="F30" s="19"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="19">
-        <f>'[28]Sheet 1'!A16</f>
-        <v>0</v>
-      </c>
-      <c r="C31" s="19">
-        <f>'[28]Sheet 1'!B16</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="19">
-        <f>'[28]Sheet 1'!C16</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="19">
-        <f>'[28]Sheet 1'!D16</f>
-        <v>470</v>
-      </c>
-      <c r="F31" s="19"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="19">
-        <f>'[27]Sheet 1'!A16</f>
-        <v>0</v>
-      </c>
-      <c r="C32" s="19">
-        <f>'[27]Sheet 1'!B16</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="19">
-        <f>'[27]Sheet 1'!C16</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="19">
-        <f>'[27]Sheet 1'!D16</f>
         <v>165</v>
       </c>
-      <c r="F32" s="19"/>
+      <c r="F32" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5205,8 +5185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43673C03-D325-0748-B811-A385AC18D23C}">
   <dimension ref="B2:H11"/>
   <sheetViews>
-    <sheetView zoomScale="196" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="196" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5223,17 +5203,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="2:8" ht="19.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
@@ -5259,7 +5239,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="19.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -5287,9 +5267,9 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="19.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="15"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="9" t="str">
         <f>_xlfn.CONCAT(ROUND(data_cancer!B18, 2), " (", ROUND(data_cancer!C18,2), " - ", ROUND(data_cancer!D18,2),  ")")</f>
@@ -5313,7 +5293,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="19.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -5341,9 +5321,9 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="19.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="15"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="9" t="str">
         <f>_xlfn.CONCAT(ROUND(data_cancer!B23, 2), " (", ROUND(data_cancer!C23,2), " - ", ROUND(data_cancer!D23,2),  ")")</f>
@@ -5367,7 +5347,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="19.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -5395,9 +5375,9 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="19.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="15"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="9" t="str">
         <f>_xlfn.CONCAT(ROUND(data_cancer!B28, 2), " (", ROUND(data_cancer!C28,2), " - ", ROUND(data_cancer!D28,2),  ")")</f>
@@ -5421,8 +5401,8 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="14" t="s">
-        <v>22</v>
+      <c r="B10" s="20" t="s">
+        <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>10</v>
@@ -5434,9 +5414,9 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="15"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
